--- a/4 четверть_11_JavaScript_SequelizeJS+expressJS.xlsx
+++ b/4 четверть_11_JavaScript_SequelizeJS+expressJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1396B8-7A02-4331-BF93-6CCDF7CBD72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ABD0C-B546-4B92-8C80-8F1BCB798C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13860" yWindow="-21600" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12465" yWindow="-19935" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequelizeJS DataTypes" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="324">
   <si>
     <t>Часть 1</t>
   </si>
@@ -617,30 +617,6 @@
     <t>Sequelize will keep the connection open by default, and use the same connection for all queries. If you need to close the connection, call sequelize.close() (which is asynchronous and returns a Promise).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Once sequelize.close() has been called, it's impossible to open a new connection. You will need to create a new Sequelize instance to access your database again.</t>
-    </r>
-  </si>
-  <si>
     <t>const { Sequelize } = require('sequelize');
 const { Sequelize, Op, Model, DataTypes } = require('sequelize');
 // Option 1: Passing a connection URI
@@ -844,7 +820,1493 @@
 console.log(User === sequelize.models.User); // true</t>
   </si>
   <si>
-    <t>const { Sequelize, DataTypes, Model } = require('sequelize');
+    <t>const user = new User({ id: 1 });
+user.id; // 1</t>
+  </si>
+  <si>
+    <t>Enforcing the table name to be equal to the model name</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#enforcing-the-table-name-to-be-equal-to-the-model-name</t>
+  </si>
+  <si>
+    <t>You can stop the auto-pluralization performed by Sequelize using the freezeTableName: true option. This way, Sequelize will infer the table name to be equal to the model name, without any modifications:</t>
+  </si>
+  <si>
+    <t>By default, when the table name is not given, Sequelize automatically pluralizes the model name and uses that as the table name. This pluralization is done under the hood by a library called inflection, so that irregular plurals (such as person -&gt; people) are computed correctly.</t>
+  </si>
+  <si>
+    <t>Providing the table name directly</t>
+  </si>
+  <si>
+    <t>You can simply tell Sequelize the name of the table directly as well:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sequelize.define(
+  'User',
+  {
+    // ... (attributes)
+  },
+  {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tableName: 'Employees',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sequelize.define(
+  'User',
+  {
+    // ... (attributes)
+  },
+  {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>freezeTableName: true,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>Часть 3</t>
+  </si>
+  <si>
+    <t>Model synchronization</t>
+  </si>
+  <si>
+    <t>User.sync()</t>
+  </si>
+  <si>
+    <t>This creates the table if it doesn't exist (and does nothing if it already exists)</t>
+  </si>
+  <si>
+    <t>User.sync({ force: true })</t>
+  </si>
+  <si>
+    <t>This creates the table, dropping it first if it already existed</t>
+  </si>
+  <si>
+    <t>User.sync({ alter: true })</t>
+  </si>
+  <si>
+    <t>This checks what is the current state of the table in the database (which columns it has, what are their data types, etc), and then performs the necessary changes in the table to make it match the model.</t>
+  </si>
+  <si>
+    <t>With this call, Sequelize will automatically perform an SQL query to the database. Note that this changes only the table in the database, not the model in the JavaScript side.</t>
+  </si>
+  <si>
+    <t>await User.sync({ force: true });
+console.log('The table for the User model was just (re)created!');</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#synchronizing-all-models-at-once</t>
+  </si>
+  <si>
+    <t>Synchronizing all models at once</t>
+  </si>
+  <si>
+    <t>Synchronizing User model</t>
+  </si>
+  <si>
+    <t>await sequelize.sync({ force: true });
+console.log('All models were synchronized successfully.');</t>
+  </si>
+  <si>
+    <t>Dropping tables</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#dropping-tables</t>
+  </si>
+  <si>
+    <t>To drop the table related to a model:</t>
+  </si>
+  <si>
+    <t>await User.drop();
+console.log('User table dropped!');</t>
+  </si>
+  <si>
+    <t>To drop all tables:</t>
+  </si>
+  <si>
+    <t>await sequelize.drop();
+console.log('All tables dropped!');</t>
+  </si>
+  <si>
+    <t>User.drop();</t>
+  </si>
+  <si>
+    <t>sequelize.drop();</t>
+  </si>
+  <si>
+    <t>sequelize.sync({ force: true });</t>
+  </si>
+  <si>
+    <t>User.sync({ force: true });</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#database-safety-check</t>
+  </si>
+  <si>
+    <t>Database safety check</t>
+  </si>
+  <si>
+    <t>// This will run .sync() only if database name ends with '_test'
+sequelize.sync({ force: true, match: /_test$/ });</t>
+  </si>
+  <si>
+    <t>As shown above, the sync and drop operations are destructive. Sequelize accepts a match option as an additional safety check, which receives a RegExp:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Synchronization in production</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sync({ force: true }) and sync({ alter: true }) can be destructive operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Therefore, they are not recommended for production-level software. Instead, synchronization should be done with 
+the advanced concept of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Migrations( https://sequelize.org/docs/v6/other-topics/migrations/)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+with the help of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sequelize CLI (https://github.com/sequelize/cli).</t>
+    </r>
+  </si>
+  <si>
+    <t>Часть 4</t>
+  </si>
+  <si>
+    <t>Timestamps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By default, Sequelize automatically adds the fields </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createdAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updatedAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to every model, using the data type DataTypes.DATE. Those fields are automatically managed as well - whenever you use Sequelize to create or update something, those fields will be set correctly. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createdAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field will contain the timestamp representing the moment of creation, and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updatedAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will contain the timestamp of the latest update.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is done in the Sequelize level (i.e. not done with SQL triggers). This means that direct SQL queries (for example queries performed without Sequelize by any other means) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will not cause these fields to be updated automatically.</t>
+    </r>
+  </si>
+  <si>
+    <t>It is also possible to enable only one of createdAt/updatedAt, and to provide a custom name for these columns:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sequelize.define(
+  'User',
+  {
+    // ... (attributes)
+  },
+  {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> timestamps: false,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>disable default</t>
+  </si>
+  <si>
+    <t>disable one of two</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Foo extends Model {}
+Foo.init(
+  {
+    /* attributes */
+  },
+  {
+    sequelize,
+    // don't forget to enable timestamps!
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timestamps: true,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    // I don't want createdAt
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createdAt: false,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    // I want updatedAt to actually be called updateTimestamp
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updatedAt: 'updateTimestamp',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#timestamps</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Часть 5</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#default-values</t>
+  </si>
+  <si>
+    <t>Default Values</t>
+  </si>
+  <si>
+    <t>By default, Sequelize assumes that the default value of a column is NULL. This behavior can be changed by passing a specific defaultValue to the column definition:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sequelize.define('User', {
+  name: {
+    type: DataTypes.STRING,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defaultValue: 'John Doe',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sequelize.define('Foo', {
+  bar: {
+    type: DataTypes.DATETIME,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> defaultValue: DataTypes.NOW,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    // This way, the current date/time will be used to populate this column (at the moment of insertion)
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Значения по умолчанию применяются только </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>при создании новых записей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (не при обновлении)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">code: {
+  type: DataTypes.STRING,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defaultValue: () =&gt; generateRandomCode() // Функция выполнится при создании</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const Product = sequelize.define('Product', {
+  productCode: {
+    type: DataTypes.STRING,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defaultValue: () =&gt; `PRD-${Math.random().toString(36).substr(2, 9)}`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
+    <t>Когда применяются</t>
+  </si>
+  <si>
+    <t>const user = await User.create({ name: 'John' });
+// Если есть поле age с defaultValue: 18, оно будет автоматически установлено в 18</t>
+  </si>
+  <si>
+    <t>При создании новой записи без указания значения</t>
+  </si>
+  <si>
+    <t>Для полей с автоматической логикой</t>
+  </si>
+  <si>
+    <t>1 Даты создания/обновления (createdAt, updatedAt)
+2 Флаги статусов (например, isActive: true)
+3 Счетчики или начальные значения</t>
+  </si>
+  <si>
+    <t>Для обеспечения целостности данных:</t>
+  </si>
+  <si>
+    <t>Когда поле не может быть NULL, но может иметь разумное значение по умолчанию</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#data-types</t>
+  </si>
+  <si>
+    <t>sequelizeJS DataTypes</t>
+  </si>
+  <si>
+    <t>const { DataTypes } = require('sequelize'); // Import the built-in data types</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#strings</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DataTypes.STRING; // VARCHAR(255)
+DataTypes.STRING(1234); // VARCHAR(1234)
+DataTypes.STRING.BINARY; // VARCHAR BINARY
+DataTypes.TEXT; // TEXT
+DataTypes.TEXT('tiny'); // TINYTEXT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataTypes.CITEXT; // CITEXT          PostgreSQL and SQLite only.
+DataTypes.TSVECTOR; // TSVECTOR        PostgreSQL only.</t>
+    </r>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>DataTypes.BOOLEAN; // TINYINT(1)</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#boolean</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#numbers</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>DataTypes.INTEGER; // INTEGER
+DataTypes.BIGINT; // BIGINT
+DataTypes.BIGINT(11); // BIGINT(11)</t>
+  </si>
+  <si>
+    <t>DataTypes.REAL; // REAL            PostgreSQL only.
+DataTypes.REAL(11); // REAL(11)        PostgreSQL only.
+DataTypes.REAL(11, 12); // REAL(11,12)     PostgreSQL only.</t>
+  </si>
+  <si>
+    <t>DataTypes.DOUBLE; // DOUBLE
+DataTypes.DOUBLE(11); // DOUBLE(11)
+DataTypes.DOUBLE(11, 10); // DOUBLE(11,10)</t>
+  </si>
+  <si>
+    <t>DataTypes.FLOAT; // FLOAT
+DataTypes.FLOAT(11); // FLOAT(11)
+DataTypes.FLOAT(11, 10); // FLOAT(11,10)</t>
+  </si>
+  <si>
+    <t>DataTypes.DECIMAL; // DECIMAL
+DataTypes.DECIMAL(10, 2); // DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>REAL - PostgreSQL only</t>
+  </si>
+  <si>
+    <t>INTEGER
+BIGINT</t>
+  </si>
+  <si>
+    <t>MySQL/MariaDB only</t>
+  </si>
+  <si>
+    <t>Unsigned &amp; Zerofill integers</t>
+  </si>
+  <si>
+    <t>DataTypes.INTEGER.UNSIGNED;
+DataTypes.INTEGER.ZEROFILL;
+DataTypes.INTEGER.UNSIGNED.ZEROFILL;</t>
+  </si>
+  <si>
+    <t>// You can also specify the size i.e. INTEGER(10) instead of simply INTEGER
+// Same for BIGINT, FLOAT and DOUBLE</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>STRING
+TEXT
+CITEXT
+TSVECTOR</t>
+  </si>
+  <si>
+    <t>DATE
+DATEONLY</t>
+  </si>
+  <si>
+    <t>UUIDs</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#uuids</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#dates</t>
+  </si>
+  <si>
+    <t>{
+  type: DataTypes.UUID,
+  defaultValue: DataTypes.UUIDV4 // Or DataTypes.UUIDV1
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DataTypes.DATE; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// DATETIME for mysql / sqlite, TIMESTAMP WITH TIME ZONE for postgres
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DataTypes.DATE(6); 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// DATETIME(6) for mysql 5.6.4+. Fractional seconds support with up to 6 digits of precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DataTypes.DATEONLY; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// DATE without time</t>
+    </r>
+  </si>
+  <si>
+    <t>Критически важно при запуске приложения!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For UUIDs, use DataTypes.UUID. It becomes the UUID data type for PostgreSQL and SQLite, and CHAR(36) for MySQL. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sequelize can generate UUIDs automatically for these fields, simply use DataTypes.UUIDV1 or DataTypes.UUIDV4 as the default value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This behavior can be disabled for a model with the timestamps: false option:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!
+Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Once sequelize.close() has been called, it's impossible to open a new connection. You will need to create a new Sequelize instance to access your database again.</t>
+    </r>
+  </si>
+  <si>
+    <t>Other DataTypes</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/other-topics/other-data-types/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The DataTypes.JSON data type is only supported for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQLite, MySQL, MariaDB, Oracle and PostgreSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. However, there is a minimum support for MSSQL (see below).</t>
+    </r>
+  </si>
+  <si>
+    <t>PostgreSQL also supports a JSONB data type: DataTypes.JSONB. It can be queried in three different ways:</t>
+  </si>
+  <si>
+    <t>// Nested object
+await Foo.findOne({
+  where: {
+    meta: {
+      video: {
+        url: {
+          [Op.ne]: null,
+        },
+      },
+    },
+  },
+});</t>
+  </si>
+  <si>
+    <t>// Nested key
+await Foo.findOne({
+  where: {
+    'meta.audio.length': {
+      [Op.gt]: 20,
+    },
+  },
+});</t>
+  </si>
+  <si>
+    <t>// Containment
+await Foo.findOne({
+  where: {
+    meta: {
+      [Op.contains]: {
+        site: {
+          url: 'https://google.com',
+        },
+      },
+    },
+  },
+});</t>
+  </si>
+  <si>
+    <t>Note for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Note for MSSQL</t>
+  </si>
+  <si>
+    <t>The JSON data type in PostgreSQL stores the value as plain text, as opposed to binary representation. If you simply want to store and retrieve a JSON representation, using JSON will take less disk space and less time to build from its input representation. However, if you want to do any operations on the JSON value, you should prefer the JSONB data type described below.</t>
+  </si>
+  <si>
+    <t>MSSQL does not have a JSON data type, however it does provide some support for JSON stored as strings through certain functions since SQL Server 2016. Using these functions, you will be able to query the JSON stored in the string, but any returned values will need to be parsed separately.</t>
+  </si>
+  <si>
+    <t>// ISJSON - to test if a string contains valid JSON
+await User.findAll({
+  where: sequelize.where(sequelize.fn('ISJSON', sequelize.col('userDetails')), 1),
+});</t>
+  </si>
+  <si>
+    <t>// JSON_VALUE - extract a scalar value from a JSON string
+await User.findAll({
+  attributes: [
+    [sequelize.fn('JSON_VALUE', sequelize.col('userDetails'), '$.address.Line1'), 'address line 1'],
+  ],
+});</t>
+  </si>
+  <si>
+    <t>// JSON_VALUE - query a scalar value from a JSON string
+await User.findAll({
+  where: sequelize.where(
+    sequelize.fn('JSON_VALUE', sequelize.col('userDetails'), '$.address.Line1'),
+    '14, Foo Street',
+  ),
+});</t>
+  </si>
+  <si>
+    <t>// JSON_QUERY - extract an object or array
+await User.findAll({
+  attributes: [
+    [sequelize.fn('JSON_QUERY', sequelize.col('userDetails'), '$.address'), 'full address'],
+  ],
+});</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Часть 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title: { type: DataTypes.STRING, allowNull: false },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    myDate: { type: DataTypes.DATE, defaultValue: DataTypes.NOW },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    flag: { type: DataTypes.BOOLEAN, allowNull: false, defaultValue: true },</t>
+  </si>
+  <si>
+    <t>const { Model, DataTypes, Deferrable } = require('sequelize');
+class Foo extends Model {}
+Foo.init(
+  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    someUnique: { type: DataTypes.STRING, unique: true },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    identifier: { type: DataTypes.STRING, primaryKey: true },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uniqueOne: { type: DataTypes.STRING, unique: 'compositeIndex' },
+    uniqueTwo: { type: DataTypes.INTEGER, unique: 'compositeIndex' },
+</t>
+  </si>
+  <si>
+    <t>Creating two objects with the same value will throw an error. The unique property can be either a boolean, or a string. If you provide the same string for multiple columns, they will form a composite unique key.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instantiating will automatically set the flag to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if not set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default values for dates =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Setting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allowNull to false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the column, which means an error will be thrown from the DB when the query is executed if the column is null. If you want to check that a value is not null before querying the DB, look at the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> validations section below.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`https://sequelize.org/docs/v6/core-concepts/validations-and-constraints/</t>
+    </r>
+  </si>
+  <si>
+    <t>Не понял</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Go on reading for further information about primary keys</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    incrementMe: { type: DataTypes.INTEGER, autoIncrement: true },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fieldWithUnderscores: {
+      type: DataTypes.STRING,
+      field: 'field_with_underscores',
+    },</t>
+  </si>
+  <si>
+    <t>Сustom column name via the 'field' attribute</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+autoIncrement to create auto_incrementing integer columns</t>
+    </r>
+  </si>
+  <si>
+    <t>to create a unique constraint.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It is possible to create foreign keys:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    bar_id: {
+      type: DataTypes.INTEGER,</t>
+  </si>
+  <si>
+    <t>This is a reference to another model</t>
+  </si>
+  <si>
+    <t>This is the column name of the referenced model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      references: {
+        model: Bar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        key: 'id',</t>
+  </si>
+  <si>
+    <t>With PostgreSQL, it is optionally possible to declare when to check the foreign key constraint, passing the Deferrable type.
+Options:
+1 `Deferrable.INITIALLY_IMMEDIATE` - Immediately check the foreign key constraints
+2 `Deferrable.INITIALLY_DEFERRED` - Defer all foreign key constraint check to the end of a transaction
+3 `Deferrable.NOT` - Don't defer the checks at all (default) - This won't allow you to dynamically change the rule in a transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        deferrable: Deferrable.INITIALLY_IMMEDIATE,
+      },
+    },</t>
+  </si>
+  <si>
+    <t>Comments can only be added to columns in MySQL, MariaDB, PostgreSQL and MSSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    commentMe: {
+      type: DataTypes.INTEGER,
+      comment: 'This is a column name that has a comment',
+    },
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    sequelize,
+    modelName: 'foo',
+    // Using `unique: true` in an attribute above is exactly the same as creating the index in the model's options:
+    indexes: [{ unique: true, fields: ['someUnique'] }],
+  },
+);</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#column-options</t>
+  </si>
+  <si>
+    <t>Using `unique: true` in an attribute above is exactly the same as creating the index in the model's options:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Sequelize, DataTypes, Model } = require('sequelize');
 const sequelize = new Sequelize('sqlite::memory:');
 class User extends Model {}
 User.init(
@@ -860,26 +2322,62 @@
     },
   },
   {
-    // Other model options go here
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Other model options go here Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
     sequelize, // We need to pass the connection instance
-    modelName: 'User', // We need to choose the model name
+    modelName: 'User', // We need to choose the model name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   },
 );
 // the defined model is the class itself
 console.log(User === sequelize.models.User); // true</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Пояснение!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taking advantage of Models being classes</t>
     </r>
     <r>
       <rPr>
@@ -890,40 +2388,371 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Internally, sequelize.define calls Model.init, so both approaches are essentially equivalent.</t>
-    </r>
-  </si>
-  <si>
-    <t>const user = new User({ id: 1 });
-user.id; // 1</t>
-  </si>
-  <si>
-    <t>Enforcing the table name to be equal to the model name</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#enforcing-the-table-name-to-be-equal-to-the-model-name</t>
-  </si>
-  <si>
-    <t>You can stop the auto-pluralization performed by Sequelize using the freezeTableName: true option. This way, Sequelize will infer the table name to be equal to the model name, without any modifications:</t>
-  </si>
-  <si>
-    <t>By default, when the table name is not given, Sequelize automatically pluralizes the model name and uses that as the table name. This pluralization is done under the hood by a library called inflection, so that irregular plurals (such as person -&gt; people) are computed correctly.</t>
-  </si>
-  <si>
-    <t>Providing the table name directly</t>
-  </si>
-  <si>
-    <t>You can simply tell Sequelize the name of the table directly as well:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sequelize.define(
-  'User',
+`https://sequelize.org/docs/v6/core-concepts/model-basics/#taking-advantage-of-models-being-classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class User extends Model {
+  static classLevelMethod() {
+    return 'foo';
+  }
+  instanceLevelMethod() {
+    return 'bar';
+  }
+  getFullname() {
+    return [this.firstname, this.lastname].join(' ');
+  }
+}
+User.init(
   {
-    // ... (attributes)
+    firstname: Sequelize.TEXT,
+    lastname: Sequelize.TEXT,
   },
-  {
-    </t>
+  { sequelize },
+);
+console.log(User.classLevelMethod()); // 'foo'
+const user = User.build({ firstname: 'Jane', lastname: 'Doe' });
+console.log(user.instanceLevelMethod()); // 'bar'
+console.log(user.getFullname()); // 'Jane Doe'</t>
+    </r>
+  </si>
+  <si>
+    <t>const jane = User.build({ name: 'Jane' });
+console.log(jane instanceof User); // true
+console.log(jane.name); // "Jane"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Although a model is a class, you should not create instances by using the new operator directly. Instead, the build method should be used.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method only creates an object that represents data that can be mapped to a database. </t>
+    </r>
+  </si>
+  <si>
+    <t>In order to really save (i.e. persist) this instance in the database, the save method should be used:</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>Часть 7</t>
+  </si>
+  <si>
+    <t>Работа с Model</t>
+  </si>
+  <si>
+    <t>Note, from the usage of await in the snippet above, that save is an asynchronous method. In fact, almost every Sequelize method is asynchronous; build is one of the very few exceptions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await jane.save();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log('Jane was saved to the database!');</t>
+    </r>
+  </si>
+  <si>
+    <t>jane.save();</t>
+  </si>
+  <si>
+    <t>User.build({ name: 'Jane' });</t>
+  </si>
+  <si>
+    <t>Инициализация экaземпляров модели</t>
+  </si>
+  <si>
+    <t>save()</t>
+  </si>
+  <si>
+    <t>build()</t>
+  </si>
+  <si>
+    <t>create()</t>
+  </si>
+  <si>
+    <t>`=build()+save()</t>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+// Jane exists in the database now!
+console.log(jane instanceof User); // true
+console.log(jane.name); // "Jane"</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-instances/#note-logging-instances</t>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+// console.log(jane); // Don't do this
+console.log(jane.toJSON()); // This is good!
+console.log(JSON.stringify(jane, null, 4)); // This is also good!</t>
+  </si>
+  <si>
+    <t>jane.toJSON()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Default values
+Built instances will automatically get default values:
+const jane = User.build({ name: 'Jane' });
+console.log(jane.favoriteColor); // "green"</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+console.log(jane.name); // "Jane"
+jane.name = 'Ada';
+// the name is still "Jane" in the database
+await jane.save();
+// Now the name was updated to "Ada" in the database!</t>
+  </si>
+  <si>
+    <t>update…</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-instances/#updating-an-instance</t>
+  </si>
+  <si>
+    <t>You can update several fields at once with the set method:</t>
+  </si>
+  <si>
+    <t>UPDATE (several)</t>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+jane.set({
+  name: 'Ada',
+  favoriteColor: 'blue',
+});
+// As above, the database still has "Jane" and "green"
+await jane.save();
+// The database now has "Ada" and "blue" for name and favorite color</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If you change the value of some field of an instance, calling save again will update it accordingly:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note that the save() here will also persist any other changes that have been made on this instance, not just those in the previous set call. If you want to update a specific set of fields, you can use update:</t>
+    </r>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+jane.favoriteColor = 'blue';
+await jane.update({ name: 'Ada' });
+// The database now has "Ada" for name, but still has the default "green" for favorite color
+await jane.save();
+// Now the database has "Ada" for name and "blue" for favorite color</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>delete…</t>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+console.log(jane.name); // "Jane"
+await jane.destroy();
+// Now this entry was removed from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can delete an instance by calling destroy:
+</t>
+  </si>
+  <si>
+    <t>RELOAD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Reloading an instance</t>
+    </r>
+  </si>
+  <si>
+    <t>const jane = await User.create({ name: 'Jane' });
+console.log(jane.name); // "Jane"
+jane.name = 'Ada';
+// the name is still "Jane" in the database
+await jane.reload();
+console.log(jane.name); // "Jane"</t>
+  </si>
+  <si>
+    <t>reload…</t>
+  </si>
+  <si>
+    <t>UPDATE (one or more concrete fields)</t>
+  </si>
+  <si>
+    <t>INSERT (one or more concrete fields)</t>
+  </si>
+  <si>
+    <t>It is possible to define which attributes should be saved when calling save, by passing an array of column names.</t>
+  </si>
+  <si>
+    <t>await jane.save({ fields: ['name'] });</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const jane = await User.create({ name: 'Jane' });
+console.log(jane.name); // "Jane"
+console.log(jane.favoriteColor); // "green"
+jane.name = 'Jane II';
+jane.favoriteColor = 'blue';
+</t>
     </r>
     <r>
       <rPr>
@@ -935,7 +2764,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tableName: 'Employees',</t>
+      <t>await jane.save({ fields: ['name'] });</t>
     </r>
     <r>
       <rPr>
@@ -947,157 +2776,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-  },
-);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sequelize.define(
-  'User',
-  {
-    // ... (attributes)
-  },
-  {
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>freezeTableName: true,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  },
-);</t>
-    </r>
-  </si>
-  <si>
-    <t>Часть 3</t>
-  </si>
-  <si>
-    <t>Model synchronization</t>
-  </si>
-  <si>
-    <t>User.sync()</t>
-  </si>
-  <si>
-    <t>This creates the table if it doesn't exist (and does nothing if it already exists)</t>
-  </si>
-  <si>
-    <t>User.sync({ force: true })</t>
-  </si>
-  <si>
-    <t>This creates the table, dropping it first if it already existed</t>
-  </si>
-  <si>
-    <t>User.sync({ alter: true })</t>
-  </si>
-  <si>
-    <t>This checks what is the current state of the table in the database (which columns it has, what are their data types, etc), and then performs the necessary changes in the table to make it match the model.</t>
-  </si>
-  <si>
-    <t>With this call, Sequelize will automatically perform an SQL query to the database. Note that this changes only the table in the database, not the model in the JavaScript side.</t>
-  </si>
-  <si>
-    <t>await User.sync({ force: true });
-console.log('The table for the User model was just (re)created!');</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#synchronizing-all-models-at-once</t>
-  </si>
-  <si>
-    <t>Synchronizing all models at once</t>
-  </si>
-  <si>
-    <t>Synchronizing User model</t>
-  </si>
-  <si>
-    <t>await sequelize.sync({ force: true });
-console.log('All models were synchronized successfully.');</t>
-  </si>
-  <si>
-    <t>Dropping tables</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#dropping-tables</t>
-  </si>
-  <si>
-    <t>To drop the table related to a model:</t>
-  </si>
-  <si>
-    <t>await User.drop();
-console.log('User table dropped!');</t>
-  </si>
-  <si>
-    <t>To drop all tables:</t>
-  </si>
-  <si>
-    <t>await sequelize.drop();
-console.log('All tables dropped!');</t>
-  </si>
-  <si>
-    <t>User.drop();</t>
-  </si>
-  <si>
-    <t>sequelize.drop();</t>
-  </si>
-  <si>
-    <t>sequelize.sync({ force: true });</t>
-  </si>
-  <si>
-    <t>User.sync({ force: true });</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#database-safety-check</t>
-  </si>
-  <si>
-    <t>Database safety check</t>
-  </si>
-  <si>
-    <t>// This will run .sync() only if database name ends with '_test'
-sequelize.sync({ force: true, match: /_test$/ });</t>
-  </si>
-  <si>
-    <t>As shown above, the sync and drop operations are destructive. Sequelize accepts a match option as an additional safety check, which receives a RegExp:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Synchronization in production</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+console.log(jane.name); // "Jane II"
+console.log(jane.favoriteColor); // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"blue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1113,18 +2813,22 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sync({ force: true }) and sync({ alter: true }) can be destructive operations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Therefore, they are not recommended for production-level software. Instead, synchronization should be done with 
-the advanced concept of </t>
+      <t xml:space="preserve">// The above printed blue because the local object has it set to blue, but
+// in the database it is still "green":
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">await jane.reload();
+console.log(jane.name); // "Jane II"
+console.log(jane.favoriteColor); // </t>
     </r>
     <r>
       <rPr>
@@ -1136,18 +2840,51 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Migrations( https://sequelize.org/docs/v6/other-topics/migrations/)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-with the help of the </t>
+      <t>"green"</t>
+    </r>
+  </si>
+  <si>
+    <t>increment integer</t>
+  </si>
+  <si>
+    <t>INCREMENT integer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Incrementing and decrementing integer values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно - поведение в разных диалектах!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 In PostgreSQL, `incrementResult` will be the updated user, unless the option `{ returning: false }` was set (and then it will be undefined).
+2 In other dialects, `incrementResult` will be undefined. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const jane = await User.create({ name: 'Jane', age: 100 });
+const incrementResult = await jane.increment('age', { by: 2 });
+</t>
     </r>
     <r>
       <rPr>
@@ -1159,322 +2896,342 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Sequelize CLI (https://github.com/sequelize/cli).</t>
-    </r>
-  </si>
-  <si>
-    <t>Часть 4</t>
-  </si>
-  <si>
-    <t>Timestamps</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By default, Sequelize automatically adds the fields </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>createdAt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updatedAt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to every model, using the data type DataTypes.DATE. Those fields are automatically managed as well - whenever you use Sequelize to create or update something, those fields will be set correctly. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>createdAt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field will contain the timestamp representing the moment of creation, and the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updatedAt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will contain the timestamp of the latest update.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Очень важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This is done in the Sequelize level (i.e. not done with SQL triggers). This means that direct SQL queries (for example queries performed without Sequelize by any other means) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will not cause these fields to be updated automatically.</t>
-    </r>
-  </si>
-  <si>
-    <t>This behavior can be disabled for a model with the timestamps: false option:</t>
-  </si>
-  <si>
-    <t>It is also possible to enable only one of createdAt/updatedAt, and to provide a custom name for these columns:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sequelize.define(
-  'User',
+      <t>to increment by 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you can omit the `by` option and just do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`user.increment('age')`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If you need the updated instance, you will have to call `user.reload()`.</t>
+    </r>
+  </si>
+  <si>
+    <t>You can also increment multiple fields at once:</t>
+  </si>
+  <si>
+    <t>await jane.increment('age', { by: 2 });</t>
+  </si>
+  <si>
+    <t>await jane.increment(['age', 'cash'], { by: 2 });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const jane = await User.create({ name: 'Jane', age: 100, cash: 5000 });
+await jane.increment({
+  age: 2,
+  cash: 100,
+});
+</t>
+  </si>
+  <si>
+    <t>// If the values are incremented by the same amount, you can use this other syntax as well:
+await jane.increment(['age', 'cash'], { by: 2 });</t>
+  </si>
+  <si>
+    <t>await jane.increment({
+  age: 2,
+  cash: 100,
+});</t>
+  </si>
+  <si>
+    <t>Часть 8</t>
+  </si>
+  <si>
+    <t>Model Querying - Basics</t>
+  </si>
+  <si>
+    <t>Документация https://sequelize.org/docs/v6/core-concepts/model-querying-basics/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно при запуске приложения!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Important notice: to perform production-ready queries with Sequelize, make sure you have read the Transactions guide as well. Transactions are important to ensure data integrity and to provide other benefits.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`https://sequelize.org/docs/v6/other-topics/transactions/</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#simple-insert-queries</t>
+  </si>
+  <si>
+    <t>// Create a new user
+const jane = await User.create({ firstName: 'Jane', lastName: 'Doe' });
+console.log("Jane's auto-generated ID:", jane.id);</t>
+  </si>
+  <si>
+    <t>const user = await User.create(
   {
-    // ... (attributes)
+    username: 'alice123',
+    isAdmin: true,
   },
-  {
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> timestamps: false,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  },
-);</t>
-    </r>
-  </si>
-  <si>
-    <t>disable default</t>
-  </si>
-  <si>
-    <t>disable one of two</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">class Foo extends Model {}
-Foo.init(
-  {
-    /* attributes */
-  },
-  {
-    sequelize,
-    // don't forget to enable timestamps!
+  { fields: ['username'] },
+);
+// let's assume the default of isAdmin is false
+console.log(user.username); // 'alice123'
+console.log(user.isAdmin); // false</t>
+  </si>
+  <si>
+    <t>await User.create()</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#simple-select-queries</t>
+  </si>
+  <si>
+    <t>// Find all users
+const users = await User.findAll();
+console.log(users.every(user =&gt; user instanceof User)); // true
+console.log('All users:', JSON.stringify(users, null, 2));</t>
+  </si>
+  <si>
+    <t>await User.findAll();</t>
+  </si>
+  <si>
+    <t>SELECT * FROM …</t>
+  </si>
+  <si>
+    <t>SELECT (Specifying attributes)</t>
+  </si>
+  <si>
+    <t>Model.findAll({
+  attributes: ['foo', 'bar'],
+});</t>
+  </si>
+  <si>
+    <t>SELECT foo, bar FROM …</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attributes can be renamed using a nested array:
+SELECT foo, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bar AS baz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, qux FROM …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model.findAll({
+  attributes: ['foo', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['bar', 'baz']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 'qux'],
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Model.findAll({
+  attributes: ['foo', [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sequelize.fn('COUNT', sequelize.col('hats')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), 'n_hats'], 'bar'],
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>// This is a tiresome way of getting the number of hats (along with every column)
+Model.findAll({
+  attributes: [
+    'id',
+    'foo',
+    'bar',
+    'baz',
+    'qux',
+    'hats', // We had to list all attributes...
+    [sequelize.fn('COUNT', sequelize.col('hats')), 'n_hats'], // To add the aggregation...
+  ],
+});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can use sequelize.fn to do aggregations:
+SELECT foo, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNT(hats)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS n_hats, bar FROM …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// This is shorter, and less error prone because it still works if you add / remove attributes from your model later
+Model.findAll({
+  attributes: {
     </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>timestamps: true,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    // I don't want createdAt
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>createdAt: false,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    // I want updatedAt to actually be called updateTimestamp
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updatedAt: 'updateTimestamp',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  },
-);</t>
-    </r>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#timestamps</t>
-  </si>
-  <si>
-    <t>Model 2</t>
-  </si>
-  <si>
-    <t>Model 3</t>
-  </si>
-  <si>
-    <t>Часть 5</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#default-values</t>
-  </si>
-  <si>
-    <t>Default Values</t>
-  </si>
-  <si>
-    <t>By default, Sequelize assumes that the default value of a column is NULL. This behavior can be changed by passing a specific defaultValue to the column definition:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sequelize.define('User', {
-  name: {
-    type: DataTypes.STRING,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defaultValue: 'John Doe',</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include: [[sequelize.fn('COUNT', sequelize.col('hats')), 'n_hats']],</t>
     </r>
     <r>
       <rPr>
@@ -1491,23 +3248,36 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">sequelize.define('Foo', {
-  bar: {
-    type: DataTypes.DATETIME,
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> defaultValue: DataTypes.NOW,</t>
+    <t>include: [[sequelize.fn('COUNT', sequelize.col('hats')), 'n_hats']],</t>
+  </si>
+  <si>
+    <t>Assuming all columns are 'id', 'foo', 'bar', 'baz' and 'qux'
+SELECT id, foo, bar, qux FROM ...</t>
+  </si>
+  <si>
+    <t>Similarly, it's also possible to remove a selected few attributes:
+Model.findAll({
+  attributes: { exclude: ['baz'] },
+});</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#applying-where-clauses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
     </r>
     <r>
       <rPr>
@@ -1518,74 +3288,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-    // This way, the current date/time will be used to populate this column (at the moment of insertion)
-  },
-});</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Пояснение!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Значения по умолчанию применяются только </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>при создании новых записей</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (не при обновлении)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">code: {
-  type: DataTypes.STRING,
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defaultValue: () =&gt; generateRandomCode() // Функция выполнится при создании</t>
+Internally, sequelize.define calls Model.init, so both approaches are essentially equivalent.</t>
     </r>
     <r>
       <rPr>
@@ -1597,129 +3300,52 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">const Product = sequelize.define('Product', {
-  productCode: {
-    type: DataTypes.STRING,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defaultValue: () =&gt; `PRD-${Math.random().toString(36).substr(2, 9)}`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-  }
-});</t>
-    </r>
-  </si>
-  <si>
-    <t>Вариант 1</t>
-  </si>
-  <si>
-    <t>Вариант 2</t>
-  </si>
-  <si>
-    <t>Вариант 3</t>
-  </si>
-  <si>
-    <t>Когда применяются</t>
-  </si>
-  <si>
-    <t>const user = await User.create({ name: 'John' });
-// Если есть поле age с defaultValue: 18, оно будет автоматически установлено в 18</t>
-  </si>
-  <si>
-    <t>При создании новой записи без указания значения</t>
-  </si>
-  <si>
-    <t>Для полей с автоматической логикой</t>
-  </si>
-  <si>
-    <t>1 Даты создания/обновления (createdAt, updatedAt)
-2 Флаги статусов (например, isActive: true)
-3 Счетчики или начальные значения</t>
-  </si>
-  <si>
-    <t>Для обеспечения целостности данных:</t>
-  </si>
-  <si>
-    <t>Когда поле не может быть NULL, но может иметь разумное значение по умолчанию</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#data-types</t>
-  </si>
-  <si>
-    <t>sequelizeJS DataTypes</t>
-  </si>
-  <si>
-    <t>const { DataTypes } = require('sequelize'); // Import the built-in data types</t>
-  </si>
-  <si>
-    <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#strings</t>
-  </si>
-  <si>
-    <t>Strings</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DataTypes.STRING; // VARCHAR(255)
-DataTypes.STRING(1234); // VARCHAR(1234)
-DataTypes.STRING.BINARY; // VARCHAR BINARY
-DataTypes.TEXT; // TEXT
-DataTypes.TEXT('tiny'); // TINYTEXT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DataTypes.CITEXT; // CITEXT          PostgreSQL and SQLite only.
-DataTypes.TSVECTOR; // TSVECTOR        PostgreSQL only.</t>
-    </r>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>DataTypes.BOOLEAN; // TINYINT(1)</t>
+allowNull: false,</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1805,8 +3431,48 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1843,8 +3509,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1852,11 +3554,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1867,20 +3649,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1889,28 +3671,106 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2388,10 +4248,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V9"/>
+  <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2446,10 +4306,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -2457,35 +4317,217 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
-        <v>163</v>
+      <c r="B7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C24" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C28" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C34" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="21" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +4541,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V76"/>
+  <dimension ref="A2:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2563,7 +4605,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -2585,7 +4627,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2607,10 +4649,10 @@
     </row>
     <row r="10" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2623,6 +4665,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>187</v>
+      </c>
       <c r="C12" s="13" t="s">
         <v>62</v>
       </c>
@@ -2635,9 +4680,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>66</v>
+    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>65</v>
@@ -2645,53 +4690,53 @@
     </row>
     <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -2715,13 +4760,13 @@
     </row>
     <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="P22" s="1"/>
       <c r="U22" s="1"/>
@@ -2729,7 +4774,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2"/>
       <c r="P23" s="1"/>
@@ -2738,10 +4783,10 @@
     </row>
     <row r="24" spans="1:22" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="P24" s="1"/>
       <c r="U24" s="1"/>
@@ -2749,36 +4794,39 @@
     </row>
     <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>84</v>
+      <c r="B26" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="13" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -2802,356 +4850,889 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="16" t="s">
-        <v>137</v>
+        <v>207</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="P31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:21" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C55" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="U38" s="5"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="16" t="s">
+    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="P39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="60" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="13" t="s">
+    <row r="62" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="C65" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="C67" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="C69" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="C47" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="C49" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="C51" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="U62" s="5"/>
-    </row>
-    <row r="63" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="16" t="s">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="2"/>
+    </row>
+    <row r="72" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="2"/>
-    </row>
-    <row r="64" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="C74" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+    <row r="79" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    </row>
+    <row r="81" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B76" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>123</v>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="U85" s="5"/>
+    </row>
+    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="P86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="21"/>
+      <c r="B91" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+      <c r="C93" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A95" s="21"/>
+      <c r="B95" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="21"/>
+    </row>
+    <row r="96" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C98" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B102" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C104" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="U113" s="5"/>
+    </row>
+    <row r="114" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="P114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="2"/>
+    </row>
+    <row r="115" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B115" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B116" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B118" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B120" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B126" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B128" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="42" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/4 четверть_11_JavaScript_SequelizeJS+expressJS.xlsx
+++ b/4 четверть_11_JavaScript_SequelizeJS+expressJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ABD0C-B546-4B92-8C80-8F1BCB798C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EAC195-9FDF-4FA7-AF40-A59045A01639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12465" yWindow="-19935" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2925" yWindow="-15990" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequelizeJS DataTypes" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="458">
   <si>
     <t>Часть 1</t>
   </si>
@@ -118,66 +118,10 @@
     <t>app.js</t>
   </si>
   <si>
-    <t>const express = require('express');
-const ReportController = require('./controllers/reportController.js');
-const PublicationController = require('./controllers/publicationController.js');
-const logNewRequest = require('./publicationLogger/publicationLogger.js');
-const app = express();
-const publicationRouter = express.Router();</t>
-  </si>
-  <si>
-    <t>app.use((req,res,next)=&gt; {
-    const accessByIpMiddleware = (req,res,next) =&gt; {
-        if(!ipList.includes(req.ip)){
-            return res.status(403).send("Forbidden");
-        };
-        next();
-    }
-    accessByIpMiddleware(req,res,next);
-    const validateTokenMiddleware = (req,res,next) =&gt; {
-        if(!tokenList.includes(req.body.token)) {
-        	return res.status(401).send("Unauthorized");
-        }
-        next();
-    }
-    validateTokenMiddleware(req,res,next);
-});</t>
-  </si>
-  <si>
-    <t>app.get('/report/:report_unique_key', ReportController.getReport);
-publicationRouter.get('/:post_id', PublicationController.getPublication, logNewRequest);
-publicationRouter.post('/', PublicationController.postPublication, logNewRequest);
-publicationRouter.put('/:post_id', PublicationController.putPublication, logNewRequest);
-publicationRouter.delete('/:post_id', PublicationController.deletePublication, logNewRequest);
-app.use("/api/v1/posts", publicationRouter);
-const port = 3000;
-app.listen(port, () =&gt; {
- console.log(`Сервер запущен на порту ${port}`);
-})</t>
-  </si>
-  <si>
     <t>Глобальный промежуточный обработчик</t>
   </si>
   <si>
     <t>Локальный промежуточный обработчик</t>
-  </si>
-  <si>
-    <t>const log4js = require("log4js");
-const logger = log4js.getLogger();
-//TODO сделать логирование в базу данных
-function logNewRequest() {
-	return (req, res) =&gt; {
-        logger.info(`Поступил запрос:\n \
-            Время запроса - ${new Date()}\
-            IP адрес запроса - ${req.ip}\
-            http-метод запроса - ${req.method}\
-            статус код ответа - ${res.statusCode}\
-            wp_post_id - ${req.body.wp_post_id}\
-            `);
-        next();
-	}
-}
-module.exports = logNewRequest;</t>
   </si>
   <si>
     <t>const PublicationRepository = require('../repository/publicationRepository.js');
@@ -751,9 +695,6 @@
     <t>Документация https://sequelize.org/docs/v6/core-concepts/model-basics/</t>
   </si>
   <si>
-    <t>Model Basics</t>
-  </si>
-  <si>
     <t>Option 1</t>
   </si>
   <si>
@@ -1363,12 +1304,6 @@
     <t>`https://sequelize.org/docs/v6/core-concepts/model-basics/#timestamps</t>
   </si>
   <si>
-    <t>Model 2</t>
-  </si>
-  <si>
-    <t>Model 3</t>
-  </si>
-  <si>
     <t>Часть 5</t>
   </si>
   <si>
@@ -1990,9 +1925,6 @@
     [sequelize.fn('JSON_QUERY', sequelize.col('userDetails'), '$.address'), 'full address'],
   ],
 });</t>
-  </si>
-  <si>
-    <t>Model 1</t>
   </si>
   <si>
     <t>Часть 6</t>
@@ -3248,9 +3180,6 @@
     </r>
   </si>
   <si>
-    <t>include: [[sequelize.fn('COUNT', sequelize.col('hats')), 'n_hats']],</t>
-  </si>
-  <si>
     <t>Assuming all columns are 'id', 'foo', 'bar', 'baz' and 'qux'
 SELECT id, foo, bar, qux FROM ...</t>
   </si>
@@ -3326,18 +3255,1357 @@
       <t xml:space="preserve">
 allowNull: false,</t>
     </r>
+  </si>
+  <si>
+    <t>class UserAuthMiddleware {
+    constructor(){
+        this.authRequest = this.authRequest.bind(this);
+    }
+	async authRequest(req, res, next) {
+        let userAuthEntity = null;
+        try {
+            userAuthEntity = await UserAuthRepository.findByIp(req.ip);
+            if(userAuthEntity == null) throw new NoSuchUserByThisIpInDatabaseException();
+        } catch(error){
+            if(error instanceof NoSuchUserByThisIpInDatabaseException){
+                res.status(403);
+			    res.json({message: "Forbidden"});
+            }
+            return res;
+        }</t>
+  </si>
+  <si>
+    <t>const express = require('express');
+const UserAuthMiddleware = require('./authMiddleware/userAuthMiddleware.js');
+const ReportController = require('./controllers/reportController.js');
+const PublicationController = require('./controllers/publicationController.js');
+const PublicationLoggerMiddleware = require('./publicationLoggerMiddleware/loggerMiddleware.js');</t>
+  </si>
+  <si>
+    <t>const app = express();
+const publicationRouter = express.Router();
+app.use(express.json());
+app.use(UserAuthMiddleware.authRequest);
+app.get('/report/:report_unique_key', ReportController.getReport);
+publicationRouter.get('/:post_id', PublicationLoggerMiddleware.logNewRequest, PublicationController.getPublication);
+publicationRouter.post('/', PublicationLoggerMiddleware.logNewRequest, PublicationController.postPublication);
+publicationRouter.put('/:post_id', PublicationLoggerMiddleware.logNewRequest, PublicationController.putPublication);
+publicationRouter.delete('/:post_id', PublicationLoggerMiddleware.logNewRequest, PublicationController.deletePublication);
+app.use("/api/v1/posts", publicationRouter);
+const port = 3000;
+app.listen(port, () =&gt; {
+ console.log(`Сервер запущен на порту ${port}`);
+})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        let dbToken = null;
+        let headersToken = null;
+        try {
+            dbToken = this.getTokenFromDbEntity(userAuthEntity);
+            headersToken = this.getTokenFromHeaders(req.headers);
+        } catch(error) {
+            if(error instanceof NoAuthorizationTokenInHeadersProvidedException){
+                res.status(400);
+			    res.json({message: "Bad request: " + error.message});
+            } else if(error instanceof InvalidFormatOfAuthorizationTokenInHeadersProvidedException){
+                res.status(400);
+			    res.json({message: "Bad request: " + error.message});
+            };
+            return res;
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try {
+            this.getAccessViaToken(dbToken, headersToken);
+        } catch (error) {
+            if(error instanceof InvalidTokenProvidedException) {
+                res.status(401);
+			    res.json({message: "Unauthorized"});
+            }
+            return res;
+        }
+        next();</t>
+  </si>
+  <si>
+    <t>const RequestLogRepository = require('./requestLogRepository.js');
+class LoggerMiddleware {
+	async logNewRequest(req, res, next) {
+        res.on('finish', async () =&gt; {
+             await RequestLogRepository.createRequest(
+                new Date(),
+                req.ip,
+                req.method,
+                res.statusCode,
+                req.body ? req.body.wp_post_id : req.params.post_id,
+            );
+        });        
+        next();
+	};
+};
+module.exports = new LoggerMiddleware();</t>
+  </si>
+  <si>
+    <t>const RequestLog = require('./requestLog.js');
+class RequestLogRepository {
+    async createRequest(reqDatetime, reqIp, reqHttpMethod, reqStatusCode, reqWpPostId){
+        const requestLog = await RequestLog.create({
+            request_datetime: reqDatetime,
+            request_ip: reqIp,
+            request_http_method: reqHttpMethod,
+            request_status_code: reqStatusCode,
+            request_wp_post_id: reqWpPostId
+        });
+        return requestLog;
+    };
+};
+module.exports = new RequestLogRepository();</t>
+  </si>
+  <si>
+    <t>let sequelizeConnObj = require('../database/sqlConnection');
+const {SequelizeInst, Model, DataTypes} = sequelizeConnObj;
+const RequestLog = SequelizeInst.define('request_Log', {
+    id: {
+      primaryKey: true,
+      type: DataTypes.UUID,
+      allowNull: false,
+      unique: true,
+      defaultValue: DataTypes.UUIDV1
+    },
+    request_datetime: {
+      type: DataTypes.DATE,
+      allowNull: false,
+    },
+    request_ip: {
+      type: DataTypes.STRING,
+      allowNull: false,
+    },
+    request_http_method: {
+      type: DataTypes.STRING,
+      allowNull: false,
+    },
+    request_status_code: {
+      type: DataTypes.INTEGER,
+      allowNull: false,
+    },
+    request_wp_post_id: {
+      type: DataTypes.INTEGER,
+      allowNull: false,
+    },
+});
+(async () =&gt; {
+  await RequestLog.sync({ force: false,  alter: false});
+  // Code here
+  console.log('The table for the RequestLog model was just synced (or created, if never existed)!');
+})();
+module.exports = RequestLog;</t>
+  </si>
+  <si>
+    <t>requestLog.js</t>
+  </si>
+  <si>
+    <t>requestLogRepository.js</t>
+  </si>
+  <si>
+    <t>loggerMiddleware.js</t>
+  </si>
+  <si>
+    <t>const UserAuth = require('./userAuth.js');
+class UserAuthRepository {
+    async findByIp(reqIp){
+        const userAuth = await UserAuth.findOne({
+            where: { 
+                user_ip: reqIp 
+            } 
+        });
+        return userAuth;
+    };
+};
+module.exports = new UserAuthRepository();</t>
+  </si>
+  <si>
+    <t>userAuthRepository.js</t>
+  </si>
+  <si>
+    <t>let sequelizeConnObj = require('../database/sqlConnection');
+const {SequelizeInst, Model, DataTypes} = sequelizeConnObj;
+const UserAuth = SequelizeInst.define('user_Auth', {
+    id: {
+      primaryKey: true,
+      type: DataTypes.UUID,
+      allowNull: false,
+      unique: true,
+      defaultValue: DataTypes.UUIDV1
+    },
+    user_ip: {
+      type: DataTypes.STRING,
+      allowNull: false,
+    },
+    user_token: {
+      type: DataTypes.STRING,
+      allowNull: false,
+    },
+});
+(async () =&gt; {
+    await UserAuth.sync({ force: false,  alter: false});
+    console.log('The table for the UserAuth model was just synced (or created, if never existed)!');
+})();
+module.exports = UserAuth;</t>
+  </si>
+  <si>
+    <t>userAuth.js</t>
+  </si>
+  <si>
+    <t>userAuthMiddleware.js</t>
+  </si>
+  <si>
+    <t>aggregations</t>
+  </si>
+  <si>
+    <t>nested array</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>select all plus aggregation</t>
+  </si>
+  <si>
+    <t>select all excluding some</t>
+  </si>
+  <si>
+    <t>// SELECT * FROM post WHERE authorId = 2;</t>
+  </si>
+  <si>
+    <t>// SELECT * FROM post WHERE authorId = 12 AND status = 'active';</t>
+  </si>
+  <si>
+    <t>// SELECT * FROM post WHERE authorId = 12 OR authorId = 13;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Op } = require('sequelize');
+Post.destroy({
+  where: {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authorId: {
+      [Op.or]: [12, 13],
+    },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+});
+// DELETE FROM post WHERE authorId = 12 OR authorId = 13;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Op } = require('sequelize');
+Post.findAll({
+  where: {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Op.or]: [{ authorId: 12 }, { authorId: 13 }],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Op } = require('sequelize');
+Post.findAll({
+  where: {
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   [Op.and]: [{ authorId: 12 }, { status: 'active' }],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Post.findAll({
+  where: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    authorId: 12,
+    status: 'active',
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alternative code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const { Op } = require('sequelize');
+Post.findAll({
+  where: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    authorId: {
+      [Op.eq]: 2,
+    },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basic code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Post.findAll({
+  where: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    authorId: 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>const { Op } = require("sequelize");
+Post.findAll({
+  where: {
+    [Op.and]: [{ a: 5 }, { b: 6 }],            // (a = 5) AND (b = 6)
+    [Op.or]: [{ a: 5 }, { b: 6 }],             // (a = 5) OR (b = 6)
+    someAttribute: {
+      // Basics
+      [Op.eq]: 3,                              // = 3
+      [Op.ne]: 20,                             // != 20
+      [Op.is]: null,                           // IS NULL
+      [Op.not]: true,                          // IS NOT TRUE
+      [Op.or]: [5, 6],                         // (someAttribute = 5) OR (someAttribute = 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Using dialect specific column identifiers (PG in the following example):
+      [Op.col]: 'user.organization_id',        // = "user"."organization_id"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Number comparisons
+      [Op.gt]: 6,                              // &gt; 6
+      [Op.gte]: 6,                             // &gt;= 6
+      [Op.lt]: 10,                             // &lt; 10
+      [Op.lte]: 10,                            // &lt;= 10
+      [Op.between]: [6, 10],                   // BETWEEN 6 AND 10
+      [Op.notBetween]: [11, 15],               // NOT BETWEEN 11 AND 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Other operators
+      [Op.all]: sequelize.literal('SELECT 1'), // &gt; ALL (SELECT 1)
+      [Op.in]: [1, 2],                         // IN [1, 2]
+      [Op.notIn]: [1, 2],                      // NOT IN [1, 2]
+      [Op.like]: '%hat',                       // LIKE '%hat'
+      [Op.notLike]: '%hat',                    // NOT LIKE '%hat'
+      [Op.startsWith]: 'hat',                  // LIKE 'hat%'
+      [Op.endsWith]: 'hat',                    // LIKE '%hat'
+      [Op.substring]: 'hat',                   // LIKE '%hat%'
+      [Op.iLike]: '%hat',                      // ILIKE '%hat' (case insensitive) (PG only)
+      [Op.notILike]: '%hat',                   // NOT ILIKE '%hat'  (PG only)
+      [Op.regexp]: '^[h|a|t]',                 // REGEXP/~ '^[h|a|t]' (MySQL/PG only)
+      [Op.notRegexp]: '^[h|a|t]',              // NOT REGEXP/!~ '^[h|a|t]' (MySQL/PG only)
+      [Op.iRegexp]: '^[h|a|t]',                // ~* '^[h|a|t]' (PG only)
+      [Op.notIRegexp]: '^[h|a|t]',             // !~* '^[h|a|t]' (PG only)
+      [Op.any]: [2, 3],                        // ANY (ARRAY[2, 3]::INTEGER[]) (PG only)
+      [Op.match]: Sequelize.fn('to_tsquery', 'fat &amp; rat') // match text search for strings 'fat' and 'rat' (PG only)
+      // In Postgres, Op.like/Op.iLike/Op.notLike can be combined to Op.any:
+      [Op.like]: { [Op.any]: ['cat', 'hat'] }  // LIKE ANY (ARRAY['cat', 'hat'])
+      // There are more postgres-only range operators, see below
+    }
+  }
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Number comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Using dialect specific column identifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      // Other operators</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#operators</t>
+  </si>
+  <si>
+    <t>Project.findAll({
+  where: {
+    name: 'Some Project',
+    [Op.not]: [
+      { id: [1, 2, 3] },
+      {
+        description: {
+          [Op.like]: 'Hello%',
+        },
+      },
+    ],
+  },
+});</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM `Projects`
+WHERE (
+  `Projects`.`name` = 'Some Project'
+  AND NOT (
+    `Projects`.`id` IN (1,2,3)
+    AND
+    `Projects`.`description` LIKE 'Hello%'
+  )
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // rank &lt; 1000 OR rank IS NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // createdAt &lt; [timestamp] AND createdAt &gt; [timestamp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {
+      createdAt: {
+        [Op.lt]: new Date(),
+        [Op.gt]: new Date(new Date() - 24 * 60 * 60 * 1000)
+      }
+    },</t>
+  </si>
+  <si>
+    <t>// title LIKE 'Boat%' OR description LIKE '%boat%'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {
+      [Op.or]: [
+        {
+          title: {
+            [Op.like]: 'Boat%'
+          }
+        },
+        {
+          description: {
+            [Op.like]: '%boat%'
+          }
+        }
+      ]
+    }
+  }
+});</t>
+  </si>
+  <si>
+    <t>[Op.or]
+[Op.like]</t>
+  </si>
+  <si>
+    <t>[Op.lt]
+[Op.gt]</t>
+  </si>
+  <si>
+    <t>[Op.or]
+[Op.lt]
+[Op.eq]</t>
+  </si>
+  <si>
+    <t>const { Op } = require("sequelize");
+Foo.findAll({
+  where: {
+    rank: {
+      [Op.or]: {
+        [Op.lt]: 1000,
+        [Op.eq]: null
+      }
+    },</t>
+  </si>
+  <si>
+    <t>[Op.not]
+[Op.like]</t>
+  </si>
+  <si>
+    <t>// SELECT ... FROM "posts" AS "post" WHERE "post"."id" IN (1, 2, 3);</t>
+  </si>
+  <si>
+    <t>Post.findAll({
+  where: {
+    id: [1, 2, 3], // Same as using `id: { [Op.in]: [1,2,3] }`
+  },
+});</t>
+  </si>
+  <si>
+    <t>Advanced queries with functions (not just columns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post.findAll({
+  where: sequelize.where(sequelize.fn('char_length', sequelize.col('content')), 7),
+});
+</t>
+  </si>
+  <si>
+    <t>// SELECT ... FROM "posts" AS "post" WHERE char_length("content") = 7</t>
+  </si>
+  <si>
+    <t>Post.findAll({
+  where: {
+    [Op.or]: [
+      sequelize.where(sequelize.fn('char_length', sequelize.col('content')), 7),
+      {
+        content: {
+          [Op.like]: 'Hello%',
+        },
+      },
+      {
+        [Op.and]: [
+          { status: 'draft' },
+          sequelize.where(sequelize.fn('char_length', sequelize.col('content')), {
+            [Op.gt]: 10,
+          }),
+        ],
+      },
+    ],
+  },
+});</t>
+  </si>
+  <si>
+    <t>SELECT
+  ...
+FROM "posts" AS "post"
+WHERE (
+  char_length("content") = 7
+  OR
+  "post"."content" LIKE 'Hello%'
+  OR (
+    "post"."status" = 'draft'
+    AND
+    char_length("content") &gt; 10
+  )
+)</t>
+  </si>
+  <si>
+    <t>Postgres-only Range Operators</t>
+  </si>
+  <si>
+    <t>ONLY POSTGRES</t>
+  </si>
+  <si>
+    <t>[Op.contains]: 2,            // @&gt; '2'::integer  (PG range contains element operator)
+[Op.contains]: [1, 2],       // @&gt; [1, 2)        (PG range contains range operator)
+[Op.contained]: [1, 2],      // &lt;@ [1, 2)        (PG range is contained by operator)
+[Op.overlap]: [1, 2],        // &amp;&amp; [1, 2)        (PG range overlap (have points in common) operator)
+[Op.adjacent]: [1, 2],       // -|- [1, 2)       (PG range is adjacent to operator)
+[Op.strictLeft]: [1, 2],     // &lt;&lt; [1, 2)        (PG range strictly left of operator)
+[Op.strictRight]: [1, 2],    // &gt;&gt; [1, 2)        (PG range strictly right of operator)
+[Op.noExtendRight]: [1, 2],  // &amp;&lt; [1, 2)        (PG range does not extend to the right of operator)
+[Op.noExtendLeft]: [1, 2],   // &amp;&gt; [1, 2)        (PG range does not extend to the left of operator)</t>
+  </si>
+  <si>
+    <t>Simple UPDATE queries</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#simple-update-queries</t>
+  </si>
+  <si>
+    <t>// Change everyone without a last name to "Doe"
+await User.update(
+  { lastName: 'Doe' },
+  {
+    where: {
+      lastName: null,
+    },
+  },
+);</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#simple-delete-queries</t>
+  </si>
+  <si>
+    <t>Simple DELETE queries</t>
+  </si>
+  <si>
+    <t>// Delete everyone named "Jane"
+await User.destroy({
+  where: {
+    firstName: 'Jane',
+  },
+});</t>
+  </si>
+  <si>
+    <t>// Truncate the table
+await User.destroy({
+  truncate: true,
+});</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#creating-in-bulk</t>
+  </si>
+  <si>
+    <t>Creating in bulk</t>
+  </si>
+  <si>
+    <t>Simple INSERT queries</t>
+  </si>
+  <si>
+    <t>Simple SELECT queries</t>
+  </si>
+  <si>
+    <t>Applying WHERE clauses</t>
+  </si>
+  <si>
+    <t>The usage of Model.bulkCreate is very similar to Model.create, by receiving an array of objects instead of a single object.</t>
+  </si>
+  <si>
+    <t>const captains = await Captain.bulkCreate([{ name: 'Jack Sparrow' }, { name: 'Davy Jones' }]);
+console.log(captains.length); // 2
+console.log(captains[0] instanceof Captain); // true
+console.log(captains[0].name); // 'Jack Sparrow'
+console.log(captains[0].id); // 1 // (or another auto-generated value)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const Foo = sequelize.define('foo', {
+  name: {
+    type: DataTypes.TEXT,
+    validate: {
+      len: [4, 6],
+    },
+  },
+});
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// This will not throw an error, both instances will be created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await Foo.bulkCreate([{ name: 'abc123' }, { name: 'name too long' }]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// This will throw an error, nothing will be created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await Foo.bulkCreate([{ name: 'abc123' }, { name: 'name too long' }], {
+  validate: true,
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> However, by default, bulkCreate does not run validations on each object that is going to be created (which create does). To make bulkCreate run these validations as well, you must pass the validate: true option. This will decrease performance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>То есть валидатор в модели будет отключен по умолчанию для bulkCreate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is also possible to define which attributes can be set in the create method. This can be especially useful if you create database entries based on a form which can be filled by a user. Using that would, for example, allow you to restrict the User model to set only a username but not an admin flag (i.e., isAdmin):</t>
+    </r>
+  </si>
+  <si>
+    <t>// Create a new user</t>
+  </si>
+  <si>
+    <t>const jane = await User.create({ firstName: 'Jane', lastName: 'Doe' });
+console.log("Jane's auto-generated ID:", jane.id);</t>
+  </si>
+  <si>
+    <t>If you are accepting values directly from the user, it might be beneficial to limit the columns that you want to actually insert. To support this, bulkCreate() accepts a fields option, an array defining which fields must be considered (the rest will be ignored).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">await User.bulkCreate([{ username: 'foo' }, { username: 'bar', admin: true }], {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  fields: ['username'],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+});
+// Neither foo nor bar are admins.</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#ordering</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-finders/#findone</t>
+  </si>
+  <si>
+    <t>findOne</t>
+  </si>
+  <si>
+    <t>Foo.findOne({
+  order: [
+    // will return `name`
+    ['name'],
+    // will return `username` DESC
+    ['username', 'DESC'],
+    // will return max(`age`)
+    sequelize.fn('max', sequelize.col('age')),
+    // will return max(`age`) DESC
+    [sequelize.fn('max', sequelize.col('age')), 'DESC'],
+    // will return otherfunction(`col1`, 12, 'lalala') DESC
+    [sequelize.fn('otherfunction', sequelize.col('col1'), 12, 'lalala'), 'DESC'],
+    // will return otherfunction(awesomefunction(`col`)) DESC, This nesting is potentially infinite!
+    [sequelize.fn('otherfunction', sequelize.fn('awesomefunction', sequelize.col('col'))), 'DESC'],
+  ],
+});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> option is being used to specify how the results should be ordered before returning the first one.</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#grouping</t>
+  </si>
+  <si>
+    <t>Project.findAll({ group: 'name' });
+// yields 'GROUP BY name'</t>
+  </si>
+  <si>
+    <t>You can also pass a string directly to group, which will be included directly (verbatim) into the generated SQL. Use with caution and don't use with user generated content</t>
+  </si>
+  <si>
+    <t>Limits and Pagination</t>
+  </si>
+  <si>
+    <t>// Fetch 10 instances/rows
+Project.findAll({ limit: 10 });
+// Skip 8 instances/rows
+Project.findAll({ offset: 8 });
+// Skip 5 instances and fetch the 5 after that
+Project.findAll({ offset: 5, limit: 5 });</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#limits-and-pagination</t>
+  </si>
+  <si>
+    <t>Usually these are used alongside the order option.</t>
+  </si>
+  <si>
+    <t>Utility methods</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>console.log(`There are ${await Project.count()} projects`);
+const amount = await Project.count({
+  where: {
+    id: {
+      [Op.gt]: 25,
+    },
+  },
+});
+console.log(`There are ${amount} projects with an id greater than 25`);</t>
+  </si>
+  <si>
+    <t>max, min and sum</t>
+  </si>
+  <si>
+    <t>await User.max('age'); // 40
+await User.max('age', { where: { age: { [Op.lt]: 20 } } }); // 10
+await User.min('age'); // 5
+await User.min('age', { where: { age: { [Op.gt]: 5 } } }); // 10
+await User.sum('age'); // 55
+await User.sum('age', { where: { age: { [Op.gt]: 5 } } }); // 50</t>
+  </si>
+  <si>
+    <t>increment, decrement</t>
+  </si>
+  <si>
+    <t>await User.increment({ age: 5 }, { where: { id: 1 } }); // Will increase age to 15
+await User.increment({ age: -5 }, { where: { id: 1 } }); // Will decrease age to 5</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#increment-decrement</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-basics/#utility-methods</t>
+  </si>
+  <si>
+    <t>const project = await Project.findOne({ where: { title: 'My Title' } });
+if (project === null) {
+  console.log('Not found!');
+} else {
+  console.log(project instanceof Project); // true
+  console.log(project.title); // 'My Title'
+}</t>
+  </si>
+  <si>
+    <t>findOrCreate</t>
+  </si>
+  <si>
+    <t>const [user, created] = await User.findOrCreate({
+  where: { username: 'sdepold' },
+  defaults: {
+    job: 'Technical Lead JavaScript',
+  },
+});
+console.log(user.username); // 'sdepold'
+console.log(user.job); // This may or may not be 'Technical Lead JavaScript'
+console.log(created); // The boolean indicating whether this instance was just created
+if (created) {
+  console.log(user.job); // This will certainly be 'Technical Lead JavaScript'
+}</t>
+  </si>
+  <si>
+    <t>The method findOrCreate will create an entry in the table unless it can find one fulfilling the query options. In both cases, it will return an instance (either the found instance or the created instance) and a boolean indicating whether that instance was created or already existed.</t>
+  </si>
+  <si>
+    <t>findAndCountAll</t>
+  </si>
+  <si>
+    <t>const { count, rows } = await Project.findAndCountAll({
+  where: {
+    title: {
+      [Op.like]: 'foo%',
+    },
+  },
+  offset: 10,
+  limit: 2,
+});
+console.log(count);
+console.log(rows);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When group is not provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the findAndCountAll method returns an object with two properties:
+count - an integer - the total number records matching the query
+rows - an array of objects - the obtained records</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When group is provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the findAndCountAll method returns an object with two properties:
+count - an array of objects - contains the count in each group and the projected attributes
+rows - an array of objects - the obtained records</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-finders/#findandcountall</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/model-querying-finders/#findorcreate</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/getters-setters-virtuals/#getters</t>
+  </si>
+  <si>
+    <t>Getters</t>
+  </si>
+  <si>
+    <t>const User = sequelize.define('user', {
+  // Let's say we wanted to see every username in uppercase, even
+  // though they are not necessarily uppercase in the database itself
+  username: {
+    type: DataTypes.STRING,
+    get() {
+      const rawValue = this.getDataValue('username');
+      return rawValue ? rawValue.toUpperCase() : null;
+    },
+  },
+});</t>
+  </si>
+  <si>
+    <t>Setters</t>
+  </si>
+  <si>
+    <t>Had we tried to use this.username in the getter instead, we would have gotten an infinite loop! This is why Sequelize provides the getDataValue method.</t>
+  </si>
+  <si>
+    <t>This getter, just like a standard JavaScript getter, is called automatically when the field value is read:
+const user = User.build({ username: 'SuperUser123' });
+console.log(user.username); // 'SUPERUSER123'
+console.log(user.getDataValue('username')); // 'SuperUser123'</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/getters-setters-virtuals/#setters</t>
+  </si>
+  <si>
+    <t>Observe that Sequelize called the setter automatically, before even sending data to the database. The only data the database ever saw was the already hashed value.
+const user = User.build({
+  username: 'someone',
+  password: 'NotSo§tr0ngP4$SW0RD!',
+});
+console.log(user.password); // '7cfc84b8ea898bb72462e78b4643cfccd77e9f05678ec2ce78754147ba947acc'
+console.log(user.getDataValue('password')); // '7cfc84b8ea898bb72462e78b4643cfccd77e9f05678ec2ce78754147ba947acc'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const User = sequelize.define('user', {
+  username: DataTypes.STRING,
+  password: {
+    type: DataTypes.STRING,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    set(value) {
+      // Storing passwords in plaintext in the database is terrible.
+      // Hashing the value with an appropriate cryptographic hash function is better.
+      this.setDataValue('password', hash(value));
+    },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const User = sequelize.define('user', {
+  username: DataTypes.STRING,
+  password: {
+    type: DataTypes.STRING,
+    set(value) {
+      // Storing passwords in plaintext in the database is terrible.
+      // Hashing the value with an appropriate cryptographic hash function is better.
+      // Using the username as a salt is better.
+      this.setDataValue('password', hash(this.username + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>));
+    },
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Model define - Default Values</t>
+  </si>
+  <si>
+    <t>Model define - Timestamps (CreatedBy, UpdatedBy)</t>
+  </si>
+  <si>
+    <t>defaultValue: DataTypes.NOW</t>
+  </si>
+  <si>
+    <t>allowNull: false</t>
+  </si>
+  <si>
+    <t>unique: true</t>
+  </si>
+  <si>
+    <t>primaryKey: true</t>
+  </si>
+  <si>
+    <t>autoIncrement: true</t>
+  </si>
+  <si>
+    <t>defaultValue: true</t>
+  </si>
+  <si>
+    <t>field: 'field_with_underscores'</t>
+  </si>
+  <si>
+    <t>comment: 'This is a column name that has a comment'</t>
+  </si>
+  <si>
+    <t>indexes: [{ unique: true, fields: ['someUnique'] }],</t>
+  </si>
+  <si>
+    <t>Model define - Properties</t>
+  </si>
+  <si>
+    <t>Model define - Basics</t>
+  </si>
+  <si>
+    <t>Model define - Getters, Setters</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/getters-setters-virtuals/#combining-getters-and-setters</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3471,8 +4739,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3542,6 +4819,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3638,7 +4921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3649,20 +4932,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3671,58 +4954,58 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3734,7 +5017,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3746,31 +5029,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3803,7 +5101,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>136120</xdr:rowOff>
+      <xdr:rowOff>132310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3892,13 +5190,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>132310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3940,7 +5238,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -4246,12 +5544,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3C3780-3F0A-4539-8A14-1A62364281DF}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4306,10 +5605,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -4317,161 +5616,161 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C22" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4479,55 +5778,55 @@
     <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C32" s="21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4539,12 +5838,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2ADE5-9A6F-4274-9C48-F960B495367E}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V134"/>
+  <dimension ref="A2:V198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4602,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -4617,17 +5917,17 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4635,108 +5935,108 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -4760,13 +6060,13 @@
     </row>
     <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="P22" s="1"/>
       <c r="U22" s="1"/>
@@ -4774,7 +6074,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2"/>
       <c r="P23" s="1"/>
@@ -4783,10 +6083,10 @@
     </row>
     <row r="24" spans="1:22" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P24" s="1"/>
       <c r="U24" s="1"/>
@@ -4794,39 +6094,39 @@
     </row>
     <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -4850,14 +6150,14 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="16" t="s">
-        <v>207</v>
+        <v>453</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P31" s="1"/>
       <c r="U31" s="1"/>
@@ -4868,133 +6168,160 @@
     </row>
     <row r="33" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="B34" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>210</v>
+      <c r="C36" s="46" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C41" s="46" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="32" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="32" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:21" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35"/>
       <c r="B45" s="36" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -5018,11 +6345,11 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="16" t="s">
-        <v>133</v>
+        <v>443</v>
       </c>
       <c r="P49" s="1"/>
       <c r="U49" s="1"/>
@@ -5030,47 +6357,47 @@
     </row>
     <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B55" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -5094,11 +6421,11 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="16" t="s">
-        <v>134</v>
+        <v>442</v>
       </c>
       <c r="P57" s="1"/>
       <c r="U57" s="1"/>
@@ -5106,633 +6433,1202 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="C67" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="C69" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="U70" s="5"/>
-    </row>
-    <row r="71" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="16" t="s">
+      <c r="A70" s="13"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="2"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C76" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="C77" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
+      <c r="C80" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="C92" s="13"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="U96" s="5"/>
+    </row>
+    <row r="97" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="2"/>
+    </row>
+    <row r="98" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="2"/>
-    </row>
-    <row r="72" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="13" t="s">
+      <c r="C101" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B102" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="13" t="s">
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+    </row>
+    <row r="105" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    </row>
+    <row r="108" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="C110" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B84" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="U85" s="5"/>
-    </row>
-    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="U111" s="5"/>
+    </row>
+    <row r="112" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="P112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="16" t="s">
+      <c r="B113" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="21"/>
+      <c r="B114" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="21"/>
+    </row>
+    <row r="117" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="21"/>
+      <c r="B117" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="21"/>
+      <c r="B121" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="21"/>
+    </row>
+    <row r="122" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="P86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="2"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B87" s="21" t="s">
+      <c r="B123" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C124" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B128" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" s="39" t="s">
+      <c r="C128" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B129" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C130" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B131" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B134" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B90" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="21"/>
-    </row>
-    <row r="91" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A92" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-      <c r="C93" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="40" t="s">
+      <c r="C136" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="21"/>
-    </row>
-    <row r="96" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="21" t="s">
+      <c r="C137" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
+      <c r="C138" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="U139" s="5"/>
+    </row>
+    <row r="140" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="P140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="2"/>
+    </row>
+    <row r="141" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B141" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B144" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C146" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C147" s="46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B148" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C158" s="21"/>
+      <c r="D158" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C159" s="46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B160" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C160" s="21"/>
+      <c r="D160" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B162" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B163" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="D163" s="46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B164" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B165" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="D165" s="46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B166" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B167" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" s="46"/>
+      <c r="D168" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B170" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C170" s="46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B171" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B172" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B173" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C173" s="46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C175" s="46" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C176" s="46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" s="46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" s="46"/>
+    </row>
+    <row r="179" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B179" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C179" s="46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="B180" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C180" s="46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C181" s="46"/>
+    </row>
+    <row r="182" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C182" s="46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B183" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C183" s="46"/>
+      <c r="D183" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B184" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C184" s="46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C185" s="46"/>
+      <c r="D185" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B186" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C186" s="46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B188" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C188" s="46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B189" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C189" s="46"/>
+      <c r="D189" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C190" s="46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C191" s="46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C98" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B102" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" s="21" t="s">
+      <c r="D192" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C193" s="46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C195" s="46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" s="42" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C104" s="21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B106" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B108" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="U113" s="5"/>
-    </row>
-    <row r="114" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="P114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="2"/>
-    </row>
-    <row r="115" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B115" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B116" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B118" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B120" s="44" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B121" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B122" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B123" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B125" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B126" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B128" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="42" t="s">
-        <v>273</v>
+      <c r="D196" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C197" s="46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C198" s="46" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5744,10 +7640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V47"/>
+  <dimension ref="A2:V54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5818,7 +7714,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -5829,10 +7725,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
@@ -5840,10 +7736,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P7" s="1"/>
       <c r="U7" s="1"/>
@@ -5851,10 +7747,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P8" s="1"/>
       <c r="U8" s="1"/>
@@ -5869,245 +7765,317 @@
       <c r="U9" s="1"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="P10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="288" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="11" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="P11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="P12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="P14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+    <row r="24" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+    <row r="25" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
+    <row r="26" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="12" t="s">
+    <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="12" t="s">
+    <row r="36" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="C36" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="C25" s="12" t="s">
+    <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C37" s="12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="C29" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="C30" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="C33" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="C34" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C35" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="C39" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C40" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="C41" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C42" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="C46" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="C48" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+    <row r="52" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+    <row r="54" spans="2:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/4 четверть_11_JavaScript_SequelizeJS+expressJS.xlsx
+++ b/4 четверть_11_JavaScript_SequelizeJS+expressJS.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EAC195-9FDF-4FA7-AF40-A59045A01639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7C52C-58A1-4981-91CA-226AC4FDDE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2925" yWindow="-15990" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-19950" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequelizeJS DataTypes" sheetId="14" r:id="rId1"/>
-    <sheet name="sequelizeJS" sheetId="12" r:id="rId2"/>
-    <sheet name="expressJS" sheetId="13" r:id="rId3"/>
+    <sheet name="sequelizeJS - Базовый уровень" sheetId="12" r:id="rId2"/>
+    <sheet name="sequelizeJS - Ассоциации" sheetId="15" r:id="rId3"/>
+    <sheet name="sequelizeJS - Транзакции" sheetId="16" r:id="rId4"/>
+    <sheet name="expressJS" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="651">
   <si>
     <t>Часть 1</t>
   </si>
@@ -2458,9 +2460,6 @@
     <t>User.build({ name: 'Jane' });</t>
   </si>
   <si>
-    <t>Инициализация экaземпляров модели</t>
-  </si>
-  <si>
     <t>save()</t>
   </si>
   <si>
@@ -2468,9 +2467,6 @@
   </si>
   <si>
     <t>create()</t>
-  </si>
-  <si>
-    <t>`=build()+save()</t>
   </si>
   <si>
     <t>const jane = await User.create({ name: 'Jane' });
@@ -2667,9 +2663,6 @@
   </si>
   <si>
     <t>UPDATE (one or more concrete fields)</t>
-  </si>
-  <si>
-    <t>INSERT (one or more concrete fields)</t>
   </si>
   <si>
     <t>It is possible to define which attributes should be saved when calling save, by passing an array of column names.</t>
@@ -4579,25 +4572,3642 @@
     <t>Model define - Basics</t>
   </si>
   <si>
-    <t>Model define - Getters, Setters</t>
-  </si>
-  <si>
     <t>`https://sequelize.org/docs/v6/core-concepts/getters-setters-virtuals/#combining-getters-and-setters</t>
   </si>
   <si>
-    <t>Продолжить</t>
+    <t>this.getDataValue('username');</t>
+  </si>
+  <si>
+    <t>this.setDataValue('password', hash(value));</t>
+  </si>
+  <si>
+    <t>this.setDataValue('password', hash(this.username + value));</t>
+  </si>
+  <si>
+    <t>User.create({ username: 'john', password: 'secret' });
+user.update({ password: 'newsecret' });
+// или
+user.password = 'newsecret';
+await user.save();</t>
+  </si>
+  <si>
+    <t>`=build()+save() INSERT</t>
+  </si>
+  <si>
+    <t>исполняется, когда происходит INSERT, UPDATE</t>
+  </si>
+  <si>
+    <t>исполняется, когда происходит SELECT</t>
+  </si>
+  <si>
+    <t>const { gzipSync, gunzipSync } = require('zlib');
+const Post = sequelize.define('post', {
+  content: {
+    type: DataTypes.TEXT,
+    get() {
+      const storedValue = this.getDataValue('content');
+      const gzippedBuffer = Buffer.from(storedValue, 'base64');
+      const unzippedBuffer = gunzipSync(gzippedBuffer);
+      return unzippedBuffer.toString();
+    },
+    set(value) {
+      const gzippedBuffer = gzipSync(value);
+      this.setDataValue('content', gzippedBuffer.toString('base64'));
+    },
+  },
+});</t>
+  </si>
+  <si>
+    <t>Combining getters and setters</t>
+  </si>
+  <si>
+    <t>For the sake of an example, let's say we are modeling a Post, whose content is a text of unlimited length. To improve memory usage, let's say we want to store a gzipped version of the content.
+Note: modern databases should do some compression automatically in these cases. Please note that this is just for the sake of an example.</t>
+  </si>
+  <si>
+    <t>TEXT compression example</t>
+  </si>
+  <si>
+    <t>Virtual fields</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/getters-setters-virtuals/#virtual-fields</t>
+  </si>
+  <si>
+    <t>const { DataTypes } = require('sequelize');
+const User = sequelize.define('user', {
+  firstName: DataTypes.TEXT,
+  lastName: DataTypes.TEXT,
+  fullName: {
+    type: DataTypes.VIRTUAL,
+    get() {
+      return `${this.firstName} ${this.lastName}`;
+    },
+    set(value) {
+      throw new Error('Do not try to set the `fullName` value!');
+    },
+  },
+});</t>
+  </si>
+  <si>
+    <t>const user = await User.create({ firstName: 'John', lastName: 'Doe' });
+console.log(user.fullName); // 'John Doe'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It would be nice to have a simple way to obtain the full name directly! We can combine the idea of getters with the special data type Sequelize provides for this kind of situation: DataTypes.VIRTUAL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataTypes.VIRTUAL - указывает, что данное поле не должно быть в базе данных. Оно будет хранить значение только в течение запуска приложения</t>
+    </r>
+  </si>
+  <si>
+    <t>Model define - Getters, Setters - аспектная логика работы</t>
+  </si>
+  <si>
+    <t>await jane.reload();</t>
+  </si>
+  <si>
+    <t>Model define - Validations &amp; Constraints - аспектная логика работы</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/validations-and-constraints/</t>
+  </si>
+  <si>
+    <t>Validations &amp; Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Difference between Validations and Constraints
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validations не передают запросы к базе данных, если проваливаются</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Validations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are checks performed in the Sequelize level, in pure JavaScript. They can be arbitrarily complex if you provide a custom validator function, or can be one of the built-in validators offered by Sequelize. If a validation fails, no SQL query will be sent to the database at all.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constraints передают запросы к базе в любом случае - если проваливаются, возвращают ошибку, генерируемую базой данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Constraints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are rules defined at SQL level. The most basic example of constraint is an Unique Constraint. If a constraint check fails, an error will be thrown by the database and Sequelize will forward this error to JavaScript (in this example, throwing a SequelizeUniqueConstraintError). Note that in this case, the SQL query was performed, unlike the case for validations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Sequelize, Op, Model, DataTypes } = require('sequelize');
+const sequelize = new Sequelize('sqlite::memory:');
+const User = sequelize.define('user', {
+  username: {
+    type: DataTypes.TEXT,
+    allowNull: false,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    unique: true,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  hashedPassword: {
+    type: DataTypes.STRING(64),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    validate: {
+      is: /^[0-9a-f]{64}$/i,
+    },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  },
+});
+(async () =&gt; {
+  await sequelize.sync({ force: true });
+  // Code here
+})();</t>
+    </r>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/validations-and-constraints/#allowingdisallowing-null-values</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/validations-and-constraints/#unique-constraint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/* ... */ {
+  username: {
+    type: DataTypes.TEXT,
+    allowNull: false,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    unique: true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+} /* ... */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When this model is synchronized (by calling sequelize.sync for example), the username field will be created in the table as `username` TEXT UNIQUE, and an attempt to insert an username that already exists there will throw a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SequelizeUniqueConstraintError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If an attempt is made to set null to a field that does not allow null, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ValidationError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be thrown without any SQL query being performed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">unique: true
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SequelizeUniqueConstraintError</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">allowNull: false,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ValidationError</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/* ... */ {
+  username: {
+    type: DataTypes.TEXT,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    allowNull: false, - запрещено значение null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    unique: true
+  },
+} /* ... */</t>
+    </r>
+  </si>
+  <si>
+    <t>Validators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequelize.define('foo', {
+  bar: {
+    type: DataTypes.STRING,
+    validate: {
+      is: /^[a-z]+$/i,          // matches this RegExp
+      is: ["^[a-z]+$",'i'],     // same as above, but constructing the RegExp from a string
+      not: /^[a-z]+$/i,         // does not match this RegExp
+      not: ["^[a-z]+$",'i'],    // same as above, but constructing the RegExp from a string
+      isEmail: true,            // checks for email format (foo@bar.com)
+</t>
+  </si>
+  <si>
+    <t>Custom validators</t>
+  </si>
+  <si>
+    <t>Per-attribute validations</t>
+  </si>
+  <si>
+    <t>password: {
+  type: DataTypes.STRING,
+  validate: {
+    len: [8, 32], // встроенный валидатор на длину
+    customValidator(value) {
+      if (!/[A-Z]/.test(value)) {
+        return false; // Sequelize сгенерирует ValidationError
+      }
+      // Если вернуть true или ничего, валидация пройдёт
+    },
+  },
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      len: [2,10],              // only allow values with length between 2 and 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      isUUID: 4,                // only allow uuids
+      isDate: true,             // only allow date strings
+      isAfter: "2011-11-05",    // only allow date strings after a specific date
+      isBefore: "2011-11-05",   // only allow date strings before a specific date
+      max: 23,                  // only allow values &lt;= 23
+      min: 23,                  // only allow values &gt;= 23
+      isCreditCard: true,       // check for valid credit card numbers
+    }
+  }
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">len работает только для строк (STRING/VARCHAR). Для числовых типов (BIGINT) этот валидатор не имеет смысла. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">created: {
+      type: DataTypes.BIGINT(12),
+      allowNull: false,
+      validate: {
+        isBigInt(value){
+          try {
+           BigInt(value); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//TypeError будет преобразован в ValidationError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        },
+        len: [0,12]
+      }
+    },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const User = sequelize.define('user', {
+  email: {
+    type: DataTypes.STRING,
+    validate: {
+      isEmail: true, // встроенный валидатор Sequelize
+      customValidator(value) {
+        if (value === 'bad@email.com') {
+          throw new Error('Этот email запрещён!'); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Генерируем ошибку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        }
+      },
+    },
+  },
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критически важно - Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1 Любой создаваемый валидатор должен производить Error (например, throw new Error()), если валидация не пройдена
+2 Любая ошибка, возникающая на этапе исполнения валидатора, преобразуется в Sequelize.ValidationError.
+3 Поэтому если будет вызвана новая ошибка через new Error в валидаторе, она будет преобразована в Sequelize.ValidationError.
+4 When using custom validator functions the error message will be whatever message the thrown Error object holds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Критически важно - Пояснение! 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Добавление полей в Per-attribute validations
+Вариант кастомизации предустановленных свойств
+isIn: {
+  args: [['en', 'zh']],
+  msg: "Must be English or Chinese"
+}
+isInt: {
+   args: true,
+   msg: "Must be Number"
+},
+msg будет передан в error.message</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      notNull: true,            // won't allow null
+      isNull: true,             // only allows null
+      notEmpty: true,           // don't allow empty strings
+      equals: 'specific value', // only allow a specific value
+      contains: 'foo',          // force specific substrings
+      notIn: [['foo', 'bar']],  // check the value is not one of these
+      isIn: [['foo', 'bar']],   // check the value is one of these
+      notContains: 'bar',       // don't allow specific substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      isUrl: true,              // checks for url format (https://foo.com)
+      isIP: true,               // checks for IPv4 (129.89.23.1) or IPv6 format
+      isIPv4: true,             // checks for IPv4 (129.89.23.1)
+      isIPv6: true,             // checks for IPv6 format
+      isAlpha: true,            // will only allow letters
+      isAlphanumeric: true,     // will only allow alphanumeric characters, so "_abc" will fail
+      isNumeric: true,          // will only allow numbers
+      isInt: true,              // checks for valid integers
+      isFloat: true,            // checks for valid floating point numbers
+      isDecimal: true,          // checks for any numbers
+      isLowercase: true,        // checks for lowercase
+      isUppercase: true,        // checks for uppercase
+      notNull: true,            // won't allow null
+      isNull: true,             // only allows null</t>
+  </si>
+  <si>
+    <t>Глобальный кастомный валидатор</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Place extends Model {}
+Place.init(
+  {
+    name: Sequelize.STRING,
+    address: Sequelize.STRING,
+    latitude: {
+      type: DataTypes.INTEGER,
+      validate: {
+        min: -90,
+        max: 90,
+      },
+    },
+    longitude: {
+      type: DataTypes.INTEGER,
+      validate: {
+        min: -180,
+        max: 180,
+      },
+    },
+  },
+  {
+    sequelize,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validate: {
+      bothCoordsOrNone() {
+        if ((this.latitude === null) !== (this.longitude === null)) {
+          throw new Error('Either both latitude and longitude, or neither!');
+        }
+      },
+    },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+);
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object fails validation if either latitude or longitude is given, but not both.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Чтобы проверить нескоько свойств в наборе друг с другом</t>
+    </r>
+  </si>
+  <si>
+    <t>Model Querying - Raw query</t>
+  </si>
+  <si>
+    <t>Документация https://sequelize.org/docs/v6/core-concepts/raw-queries/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 1 - Любой raw query возвращает </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>массив с двумя элементами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - [result, metadata]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - a results array
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>metadata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - amount of affected rows, etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 3 - easily map a query </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to a predefined model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>projects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = await sequelize.query('SELECT * FROM projects', {
+  model: Projects, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//возможно здесь имеется в виду Project, а не Projects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  mapToModel: true, // pass true here if you have any mapped fields
+});
+// Each element of `projects` is now an instance of Project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Больше параметров настройки raw queries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://sequelize.org/api/v6/class/src/sequelize.js~sequelize#instance-method-query</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Dotted" attributes and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nest option</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  "foo.bar.baz": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "foo": {
+    "bar": {
+      "baz": 1
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Запрос</t>
+  </si>
+  <si>
+    <t>Replacements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await sequelize.query('SELECT 1', {
+  // A function (or false) for logging your queries
+  // Will get called for every SQL query that gets sent
+  // to the server.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  logging: console.log,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  // If plain is true, then sequelize will only return the first
+  // record of the result set. In case of false it will return all records.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  plain: false,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  // Set this to true if you don't have a model definition for your query.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  raw: false,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  // The type of query you are executing. The query type affects how results are formatted before they are passed back.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  type: QueryTypes.SELECT,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+});
+// Note the second argument being null!
+// Even if we declared a callee here, the raw: true would
+// supersede and return a raw object.
+console.log(await sequelize.query('SELECT * FROM projects', { raw: true }));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>возвращает одно значение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, без необходимости его деструктуризировать
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = await sequelize.query('SELECT * FROM `users`', {
+  type: QueryTypes.SELECT,
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const records = await sequelize.query('select 1 as `foo.bar.baz`', {
+  type: QueryTypes.SELECT,
+});
+console.log(JSON.stringify(records[0], null, 2));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const records = await sequelize.query('select 1 as `foo.bar.baz`', {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  nest: true,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  type: QueryTypes.SELECT,
+});
+console.log(JSON.stringify(records[0], null, 2));
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Replacements in a query can be done in two different ways, either using named parameters (starting with :), or unnamed, represented by a ?. Replacements are passed in the options object.
+1 If an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is passed, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be replaced in the order that they appear in the array
+2 If an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is passed, :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be replaced with the keys from that object. If the object contains keys not found in the query or vice versa, an exception will be thrown.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await sequelize.query('SELECT * FROM projects WHERE status = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  replacements: ['active']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+  type: QueryTypes.SELECT,
+});
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await sequelize.query('SELECT * FROM projects WHERE status = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  replacements: { status: 'active' },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  type: QueryTypes.SELECT,
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await sequelize.query('SELECT * FROM users WHERE name LIKE :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>search_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  replacements: { search_name: 'ben%' },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  type: QueryTypes.SELECT,
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { QueryTypes } = require('sequelize');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+await sequelize.query('SELECT * FROM projects WHERE status IN(:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)', {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  replacements: { status: ['active', 'inactive'] },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  type: QueryTypes.SELECT,
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bind parameters are referred to by either $1, $2, ... (numeric) or $key (alpha-numeric).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 If an array is passed, $1 is bound to the 1st element in the array (bind[0])
+2 If an object is passed, $key is bound to object['key']. Each key must begin with a non-numeric char. $1 is not a valid key, even if object['1'] exists.
+3 In either case $$ can be used to escape a literal $ sign.</t>
+    </r>
+  </si>
+  <si>
+    <t>replacements</t>
+  </si>
+  <si>
+    <t>replacements
+IN</t>
+  </si>
+  <si>
+    <t>replacements
+LIKE</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { QueryTypes } = require('sequelize');
+await sequelize.query(
+  'SELECT * FROM projects WHERE status = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">',
+  {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    bind: ['active'],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    type: QueryTypes.SELECT,
+  },
+);
+</t>
+    </r>
+  </si>
+  <si>
+    <t>await sequelize.query(
+  'SELECT * FROM projects WHERE status = $status',
+  {
+    bind: { status: 'active' },
+    type: QueryTypes.SELECT,
+  },
+);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(не отличается от Вариант 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(отличается от Вариант 1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Model define - Associations</t>
+  </si>
+  <si>
+    <t>Документация https://sequelize.org/docs/v6/core-concepts/assocs/</t>
+  </si>
+  <si>
+    <t>Sequelize supports the standard associations: One-To-One, One-To-Many and Many-To-Many.
+To do this, Sequelize provides four types of associations that should be combined to create them:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const A = sequelize.define('A' /* ... */);
+const B = sequelize.define('B' /* ... */);
+</t>
+  </si>
+  <si>
+    <t>A.hasOne(B); // A HasOne B</t>
+  </si>
+  <si>
+    <t>A.belongsTo(B); // A BelongsTo B</t>
+  </si>
+  <si>
+    <t>A.hasMany(B); // A HasMany B</t>
+  </si>
+  <si>
+    <t>The four association types are defined in a very similar way. Let's say we have two models, A and B. Telling Sequelize that you want an association between the two needs just a function call:</t>
+  </si>
+  <si>
+    <t>A.hasOne(B, {
+  /* options */
+});</t>
+  </si>
+  <si>
+    <t>A.belongsTo(B, {
+  /* options */
+});</t>
+  </si>
+  <si>
+    <t>A.belongsToMany(B, { through: 'C' /* options */ });</t>
+  </si>
+  <si>
+    <t>A.hasMany(B, {
+  /* options */
+});</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Это второй способ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">установки взаимосвязей между таблицами. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Первым является</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> прямое указание в моделях, какое поле является Foreign key и Reference</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 The A.hasOne(B) association means that a One-To-One relationship exists between A and B, with the foreign key being defined in the target model (B).
+2 The A.belongsTo(B) association means that a One-To-One relationship exists between A and B, with the foreign key being defined in the source model (A).
+3 The A.hasMany(B) association means that a One-To-Many relationship exists between A and B, with the foreign key being defined in the target model (B).
+These three calls will cause Sequelize to automatically add foreign keys to the appropriate models (unless they are already present).
+</t>
+  </si>
+  <si>
+    <t>Creating the standard relationships</t>
+  </si>
+  <si>
+    <t>To create a One-To-One relationship</t>
+  </si>
+  <si>
+    <t>To create a One-To-Many relationship</t>
+  </si>
+  <si>
+    <t>To create a Many-To-Many relationship</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hasMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> associations are used together;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hasOne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> associations are used together;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">, two </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsToMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calls are used together.
+Note: there is also a Super Many-To-Many relationship, which uses six associations at once, and will be discussed in the Advanced Many-to-Many relationships guide.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Критически важно при запуске приложения!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Нужно устанавливать связи с обеих таблицах</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/advanced-association-concepts/advanced-many-to-many/</t>
+  </si>
+  <si>
+    <t>const User_Profile = sequelize.define('User_Profile', {}, { timestamps: false });
+User.belongsToMany(Profile, { through: User_Profile });
+Profile.belongsToMany(User, { through: User_Profile });</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+You probably noticed that the User_Profiles table does not have an id field. As mentioned above, it has a composite unique key instead. The name of this composite unique key is chosen automatically by Sequelize but can be customized with the uniqueKey option:
+User.belongsToMany(Profile, {
+  through: User_Profiles,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  uniqueKey: 'my_custom_unique',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Связующая таблица не имеет ID (Primary key)</t>
+  </si>
+  <si>
+    <t>Force the through table to have a primary key just like other standard tables.
+const User_Profile = sequelize.define(
+  'User_Profile',
+  {
+    id: {
+      type: DataTypes.INTEGER,
+      primaryKey: true,
+      autoIncrement: true,
+      allowNull: false,
+    },
+    selfGranted: DataTypes.BOOLEAN,
+  },
+  { timestamps: false },
+);
+User.belongsToMany(Profile, { through: User_Profile });
+Profile.belongsToMany(User, { through: User_Profile });</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно - пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note that we didn't define any attributes on the User_Profile model. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsToMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> call tells sequelize to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">create the two attributes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profileId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">automatically - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>just like other associations also cause Sequelize to automatically add a column to one of the involved models.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Необходимо прописывать у обеих таблиц</t>
+    </r>
+  </si>
+  <si>
+    <t>A.belongsToMany(B); // A BelongsToMany B</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вариант 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Разница</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The only difference is when you try to perform an eager load with Sequelize.</t>
+    </r>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/assocs/#options</t>
+  </si>
+  <si>
+    <t>Foo.hasOne(Bar, {
+  onDelete: 'RESTRICT',
+  onUpdate: 'RESTRICT',
+});
+Bar.belongsTo(Foo);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Опции onDelete: 'RESTRICT' и onUpdate: 'RESTRICT' означают:
+RESTRICT: Если попытаться удалить (DELETE) или обновить (UPDATE) запись Foo, которая ссылается на Bar, операция будет запрещена (вызовет ошибку).</t>
+    </r>
+  </si>
+  <si>
+    <t>NO ACTION – аналогично RESTRICT, но проверка происходит позже.</t>
+  </si>
+  <si>
+    <t>SET NULL – устанавливает fooId = NULL (если столбец разрешает NULL).</t>
+  </si>
+  <si>
+    <t>CASCADE – удаляет/обновляет связанные записи автоматически.</t>
+  </si>
+  <si>
+    <t>CASCADE</t>
+  </si>
+  <si>
+    <t>SET NULL</t>
+  </si>
+  <si>
+    <t>NO ACTION</t>
+  </si>
+  <si>
+    <t>RESTRICT</t>
+  </si>
+  <si>
+    <t>const { DataTypes } = require('Sequelize');
+Foo.hasOne(Bar, {
+  foreignKey: {
+    // name: 'myFooId'
+    type: DataTypes.UUID,
+  },
+});
+Bar.belongsTo(Foo);</t>
+  </si>
+  <si>
+    <t>As shown above, the foreignKey option accepts a string or an object. When receiving an object, this object will be used as the definition for the column just like it would do in a standard sequelize.define call. Therefore, specifying options such as type, allowNull, defaultValue, etc, just work.
+For example, to use UUID as the foreign key data type instead of the default (INTEGER), you can simply do:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Foreign key </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renaming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format defining</t>
+    </r>
+  </si>
+  <si>
+    <t>Fetching associations - Eager Loading vs Lazy Loading</t>
+  </si>
+  <si>
+    <t>Lazy Loading</t>
+  </si>
+  <si>
+    <t>Eager Loading</t>
+  </si>
+  <si>
+    <r>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the getShip() instance method used above is one of the methods Sequelize automatically adds to Captain instances. There are others. You will learn more about them later in this guide.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getShip() аналогичен leftjoin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - возвращает данные из модели другой таблицы относительно оригинальной модели</t>
+    </r>
+  </si>
+  <si>
+    <t>As shown above, Eager Loading is performed in Sequelize by using the include option. Observe that here only one query was performed to the database (which brings the associated data along with the instance).</t>
+  </si>
+  <si>
+    <t>Работает только, если имеется ассоциативная связь между таблицами</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/assocs/#fetching-associations---eager-loading-vs-lazy-loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associations - Creating, updating and deleting </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">const awesomeCaptain = await Captain.findOne({
+  where: {
+    name: 'Jack Sparrow',
+  },
+});
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// Do stuff with the fetched captain
+console.log('Name:', awesomeCaptain.name);
+console.log('Skill Level:', awesomeCaptain.skillLevel);
+// Now we want information about his ship!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const hisShip = await awesomeCaptain.getShip();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+// Do stuff with the ship
+console.log('Ship Name:', hisShip.name);
+console.log('Amount of Sails:', hisShip.amountOfSails);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">const awesomeCaptain = await Captain.findOne({
+  where: {
+    name: 'Jack Sparrow',
+  },
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include: Ship, //обозначение Eager политики</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+});
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Now the ship comes with it
+console.log('Name:', awesomeCaptain.name);
+console.log('Skill Level:', awesomeCaptain.skillLevel);
+console.log('Ship Name:', awesomeCaptain.ship.name);
+console.log('Amount of Sails:', awesomeCaptain.ship.amountOfSails);</t>
+    </r>
+  </si>
+  <si>
+    <t>// Example: creating an associated model using the standard methods
+Bar.create({
+  name: 'My Bar',
+  fooId: 5,
+});
+// This creates a Bar belonging to the Foo of ID 5 (since fooId is
+// a regular column, after all). Nothing very clever going on here.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно - save() не работает!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+The save() instance method is not aware of associations. In other words, if you change a value from a child object that was eager loaded along a parent object, calling save() on the parent will completely ignore the change that happened on the child.</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating, updating and deleting</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/assocs/#creating-updating-and-deleting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Очень важно! 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Обычно используется только для связи </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">многие ко многим
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно! 
+belongsToMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> call tells sequelize to create the two attributes userId and profileId automatically</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно! 
+User.hasMany(Grant)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> автоматически добавляет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> колонку в таблицу Grant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно! 
+Ship.belongsTo(Captain)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> автоматически добавляет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>captainId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> колонку в таблицу Ship</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>User.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsToMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Profile, { through: Grant });
+Profile.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsToMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(User, { through: Grant });</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>// Setup a One-to-Many relationship between User and Grant
+User.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hasMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grant);
+Grant.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(User);
+// Also setup a One-to-Many relationship between Profile and Grant
+Profile.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hasMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grant);
+Grant.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>belongsTo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Profile);</t>
+    </r>
+  </si>
+  <si>
+    <t>Many to many</t>
+  </si>
+  <si>
+    <t>one to many</t>
+  </si>
+  <si>
+    <t>one to one</t>
+  </si>
+  <si>
+    <t>Associations - Special methods/mixins added to instances</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/assocs/#special-methodsmixins-added-to-instances</t>
+  </si>
+  <si>
+    <t>fooInstance.getBar()</t>
+  </si>
+  <si>
+    <t>fooInstance.setBar()</t>
+  </si>
+  <si>
+    <t>fooInstance.createBar()</t>
+  </si>
+  <si>
+    <t>const foo = await Foo.create({ name: 'the-foo' });
+const bar1 = await Bar.create({ name: 'some-bar' });
+const bar2 = await Bar.create({ name: 'another-bar' });</t>
+  </si>
+  <si>
+    <t>console.log((await foo.getBar()).name); // 'some-bar'
+await foo.createBar({ name: 'yet-another-bar' });
+const newlyAssociatedBar = await foo.getBar();
+console.log(newlyAssociatedBar.name); // 'yet-another-bar'
+await foo.setBar(null); // Un-associate
+console.log(await foo.getBar()); // null</t>
+  </si>
+  <si>
+    <t>await foo.setBar(bar1);</t>
+  </si>
+  <si>
+    <t>console.log(await foo.getBar()); // null</t>
+  </si>
+  <si>
+    <t>create() + setBar() =</t>
+  </si>
+  <si>
+    <t>Foo.hasOne(Bar)
+Foo.belongsTo(Bar)</t>
+  </si>
+  <si>
+    <t>Foo.hasMany(Bar)</t>
+  </si>
+  <si>
+    <t>fooInstance.getBars()</t>
+  </si>
+  <si>
+    <t>fooInstance.countBars()</t>
+  </si>
+  <si>
+    <t>fooInstance.hasBar()</t>
+  </si>
+  <si>
+    <t>fooInstance.hasBars()</t>
+  </si>
+  <si>
+    <t>fooInstance.setBars()</t>
+  </si>
+  <si>
+    <t>fooInstance.addBar()</t>
+  </si>
+  <si>
+    <t>fooInstance.addBars()</t>
+  </si>
+  <si>
+    <t>fooInstance.removeBar()</t>
+  </si>
+  <si>
+    <t>fooInstance.removeBars()</t>
+  </si>
+  <si>
+    <t>console.log(await foo.getBars()); // []</t>
+  </si>
+  <si>
+    <t>console.log(await foo.countBars()); // 0</t>
+  </si>
+  <si>
+    <t>console.log(await foo.hasBar(bar1)); // false</t>
+  </si>
+  <si>
+    <t>await foo.addBars([bar1, bar2]);
+console.log(await foo.countBars()); // 2
+await foo.addBar(bar1);
+console.log(await foo.countBars()); // 2
+console.log(await foo.hasBar(bar1)); // true
+await foo.removeBar(bar2);
+console.log(await foo.countBars()); // 1
+await foo.createBar({ name: 'yet-another-bar' });
+console.log(await foo.countBars()); // 2
+await foo.setBars([]); // Un-associate all previously associated bars
+console.log(await foo.countBars()); // 0</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/core-concepts/assocs/#foohasmanybar</t>
+  </si>
+  <si>
+    <t>Model - Транзакции</t>
+  </si>
+  <si>
+    <t>Документация https://sequelize.org/docs/v6/other-topics/transactions/</t>
+  </si>
+  <si>
+    <t>Unmanaged transactions</t>
+  </si>
+  <si>
+    <t>Committing and rolling back the transaction should be done manually by the user (by calling the appropriate Sequelize methods).</t>
+  </si>
+  <si>
+    <t>Sequelize will automatically rollback the transaction if any error is thrown, or commit the transaction otherwise. Also, if CLS (Continuation Local Storage) is enabled, all queries within the transaction callback will automatically receive the transaction object.</t>
+  </si>
+  <si>
+    <t>Managed transactions</t>
+  </si>
+  <si>
+    <t>await t.commit();
+await t.rollback();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// First, we start a transaction from your connection and save it into a variable
+const t = await sequelize.transaction();
+try {
+  // Then, we do some calls passing this transaction as an option:
+  const user = await User.create(
+    {
+      firstName: 'Bart',
+      lastName: 'Simpson',
+    },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    { transaction: t },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  );
+  await user.addSibling(
+    {
+      firstName: 'Lisa',
+      lastName: 'Simpson',
+    },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    { transaction: t },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  );
+  // If the execution reaches this line, no errors were thrown.
+  // We commit the transaction.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await t.commit();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+} catch (error) {
+  // If the execution reaches this line, an error was thrown.
+  // We rollback the transaction.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  await t.rollback(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>await sequelize.transaction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try {
+  const result = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await sequelize.transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(async </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {
+    const user = await User.create(
+      {
+        firstName: 'Abraham',
+        lastName: 'Lincoln',
+      },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      { transaction: t },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    );
+    await user.setShooter(
+      {
+        firstName: 'John',
+        lastName: 'Boothe',
+      },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      { transaction: t },</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    );
+    return user;
+  });
+  // If the execution reaches this line, the transaction has been committed successfully `result` is whatever was returned from the transaction callback (the `user`, in this case)
+} catch (error) {
+  // If the execution reaches this line, an error occurred. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The transaction has already been rolled back automatically by Sequelize!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Passing options</t>
+  </si>
+  <si>
+    <t>Isolation levels</t>
+  </si>
+  <si>
+    <t>const { Transaction } = require('sequelize');
+// The following are valid isolation levels:
+Transaction.ISOLATION_LEVELS.READ_UNCOMMITTED; // "READ UNCOMMITTED"
+Transaction.ISOLATION_LEVELS.READ_COMMITTED; // "READ COMMITTED"
+Transaction.ISOLATION_LEVELS.REPEATABLE_READ; // "REPEATABLE READ"
+Transaction.ISOLATION_LEVELS.SERIALIZABLE; // "SERIALIZABLE"</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Transaction } = require('sequelize');
+await sequelize.transaction(
+  {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isolationLevel: Transaction.ISOLATION_LEVELS.SERIALIZABLE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  async t =&gt; {
+    // Your code
+  },
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const { Sequelize, Transaction } = require('sequelize');
+const sequelize = new Sequelize('sqlite::memory:', {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isolationLevel: Transaction.ISOLATION_LEVELS.SERIALIZABLE,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note for MSSQL:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The SET ISOLATION LEVEL queries are not logged since the specified isolationLevel is passed directly to tedious.</t>
+    </r>
+  </si>
+  <si>
+    <t>const t = await sequelize.transaction();
+t.afterCommit(() =&gt; {
+  // Your logic
+});
+await t.commit();</t>
+  </si>
+  <si>
+    <t>The afterCommit hook</t>
+  </si>
+  <si>
+    <t>`https://sequelize.org/docs/v6/other-topics/transactions/#the-aftercommit-hook</t>
+  </si>
+  <si>
+    <t>await sequelize.transaction(async t =&gt; {
+  t.afterCommit(() =&gt; {
+    // Your logic
+  });
+});</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 The afterCommit hook is not raised if the transaction is rolled back;
+2 The afterCommit hook does not modify the return value of the transaction (unlike most hooks)</t>
+    </r>
+  </si>
+  <si>
+    <t>A transaction object allows tracking if and when it is committed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4743,6 +8353,32 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -4921,7 +8557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4932,20 +8568,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4954,58 +8590,58 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5017,7 +8653,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5029,46 +8665,100 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5185,6 +8875,198 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>132311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5" descr="Broker logical diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BE11E9-3980-49D3-94AF-6DAFFACD0449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="723900"/>
+          <a:ext cx="304800" cy="317095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 5" descr="Broker logical diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4798681B-1BD0-4CDA-B1BC-EC9687D4BAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="723900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5" descr="Broker logical diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB9F1DE-52AE-46E3-881D-04B06DC5F07D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="0"/>
+          <a:ext cx="304800" cy="317096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 5" descr="Broker logical diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811B36D9-69A6-4DE6-93BD-25FF6AF7EBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5549,8 +9431,8 @@
   </sheetPr>
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5841,1808 +9723,9 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V198"/>
+  <dimension ref="A2:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="8"/>
-    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="P23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="U30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="34"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="34"/>
-    </row>
-    <row r="45" spans="1:21" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="38"/>
-    </row>
-    <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="U48" s="5"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="P49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="U56" s="5"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="P57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B59" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="C65" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="C67" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="C69" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="U71" s="5"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="P72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="2"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A73" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C74" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="C76" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="C77" s="46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
-      <c r="C80" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="C84" s="13"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
-      <c r="C88" s="13"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="C89" s="13"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
-      <c r="C92" s="13"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="U96" s="5"/>
-    </row>
-    <row r="97" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="2"/>
-    </row>
-    <row r="98" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="U111" s="5"/>
-    </row>
-    <row r="112" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="P112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="B116" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" s="21"/>
-    </row>
-    <row r="117" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="B118" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
-      <c r="C119" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C121" s="21"/>
-    </row>
-    <row r="122" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C124" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B127" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B128" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B129" s="41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C130" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B131" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B132" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B133" s="42" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B134" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="U139" s="5"/>
-    </row>
-    <row r="140" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="P140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="V140" s="2"/>
-    </row>
-    <row r="141" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B141" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B142" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B143" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="C143" s="46" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" ht="144" x14ac:dyDescent="0.3">
-      <c r="B144" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C145" s="21"/>
-      <c r="D145" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C146" s="46" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C147" s="46" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B148" s="46" t="s">
-        <v>392</v>
-      </c>
-      <c r="C148" s="46" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B149" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C149" s="46" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B150" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B152" s="44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B158" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C159" s="46" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B160" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C160" s="21"/>
-      <c r="D160" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B161" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C161" s="46" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B162" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B163" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="C163" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="D163" s="46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B164" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="B165" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C165" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="D165" s="46" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B166" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C166" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B167" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C167" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B168" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="C168" s="46"/>
-      <c r="D168" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B169" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C169" s="46" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B170" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C170" s="46" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B171" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B172" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C172" s="46" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B173" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C173" s="46" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C174" s="46" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C175" s="46" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C176" s="46" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C177" s="46" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C178" s="46"/>
-    </row>
-    <row r="179" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B179" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C179" s="46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="B180" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C180" s="46" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C181" s="46"/>
-    </row>
-    <row r="182" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="C182" s="46" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B183" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C183" s="46"/>
-      <c r="D183" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B184" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C184" s="46" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B185" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="C185" s="46"/>
-      <c r="D185" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B186" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C186" s="46" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B187" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B188" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C188" s="46" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B189" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="C189" s="46"/>
-      <c r="D189" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C190" s="46" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C191" s="46" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B192" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="C193" s="46" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B194" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C195" s="46" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B196" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C197" s="46" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C198" s="46" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACE3EBD-407F-4297-955E-5D274430044E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:V54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7696,6 +9779,2979 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:21" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="C67" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="C69" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="2"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="B81" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="P83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="2"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A85" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A90" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="B91" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="C92" s="50" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="50" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>496</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="C97" s="50" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A98" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="U101" s="5"/>
+    </row>
+    <row r="102" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="2"/>
+    </row>
+    <row r="103" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="U116" s="5"/>
+    </row>
+    <row r="117" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="P117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="2"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A118" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="21"/>
+      <c r="B119" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A121" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="21"/>
+    </row>
+    <row r="122" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C124" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A127" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="21"/>
+      <c r="B130" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="21"/>
+    </row>
+    <row r="131" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B134" s="41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B136" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B137" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="U144" s="5"/>
+    </row>
+    <row r="145" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="P145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="2"/>
+    </row>
+    <row r="146" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B146" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B149" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" s="21"/>
+      <c r="D150" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C151" s="46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C152" s="46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B153" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="C153" s="46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B154" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C154" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B155" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B157" s="44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B163" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C164" s="46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C165" s="21"/>
+      <c r="D165" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B166" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B167" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B168" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="C168" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="D168" s="46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B169" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B170" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D170" s="46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B171" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C171" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B172" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="46"/>
+      <c r="D173" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B174" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B175" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" s="46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B176" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C176" s="46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B178" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C178" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" s="46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C182" s="46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" s="46"/>
+    </row>
+    <row r="184" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B184" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="B185" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" s="46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C186" s="46"/>
+    </row>
+    <row r="187" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C187" s="46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B188" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C188" s="46"/>
+      <c r="D188" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B189" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C189" s="46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C190" s="46"/>
+      <c r="D190" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B191" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C191" s="46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B192" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B193" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C193" s="46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B194" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" s="46"/>
+      <c r="D194" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C195" s="46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C196" s="46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A197" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B197" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C198" s="46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B199" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C200" s="46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A201" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C202" s="46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C203" s="46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A204" s="3"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="5"/>
+      <c r="U204" s="5"/>
+    </row>
+    <row r="205" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="P205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="2"/>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B206" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="P206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="2"/>
+    </row>
+    <row r="207" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C207" s="50" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C208" s="50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C209" s="50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B210" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="C210" s="50" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B211" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C211" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D211" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B212" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C212" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="D212" s="50" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B213" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C213" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B214" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C214" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D214" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C215" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="D215" s="50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D216" s="50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D217" s="50" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B218" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="D218" s="51" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B219" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="C219" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22522A0F-D755-4FBF-B22D-122948AE9443}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="62" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:22" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="P38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C44" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="P44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C50" s="50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C61" s="50" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A84C974-10D8-4BF7-9A4B-49B12CCA02DB}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="67" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="67" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACE3EBD-407F-4297-955E-5D274430044E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:V54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -7767,7 +12823,7 @@
     </row>
     <row r="10" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P10" s="1"/>
       <c r="U10" s="1"/>
@@ -7775,7 +12831,7 @@
     </row>
     <row r="11" spans="1:22" ht="345.6" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P11" s="1"/>
       <c r="U11" s="1"/>
@@ -7792,10 +12848,10 @@
     </row>
     <row r="13" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P13" s="1"/>
       <c r="U13" s="1"/>
@@ -7803,7 +12859,7 @@
     </row>
     <row r="14" spans="1:22" ht="230.4" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P14" s="1"/>
       <c r="U14" s="1"/>
@@ -7811,7 +12867,7 @@
     </row>
     <row r="15" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P15" s="1"/>
       <c r="U15" s="1"/>
@@ -7819,10 +12875,10 @@
     </row>
     <row r="16" spans="1:22" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P16" s="1"/>
       <c r="U16" s="1"/>
@@ -7830,10 +12886,10 @@
     </row>
     <row r="17" spans="1:22" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P17" s="1"/>
       <c r="U17" s="1"/>
@@ -7850,10 +12906,10 @@
     </row>
     <row r="19" spans="1:22" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P19" s="1"/>
       <c r="U19" s="1"/>
@@ -7861,10 +12917,10 @@
     </row>
     <row r="20" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P20" s="1"/>
       <c r="U20" s="1"/>
@@ -7872,10 +12928,10 @@
     </row>
     <row r="21" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P21" s="1"/>
       <c r="U21" s="1"/>
